--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.495914199744334</v>
+        <v>2.495914199744391</v>
       </c>
       <c r="C2">
-        <v>0.8707526695782519</v>
+        <v>0.8707526695782803</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1829541670119781</v>
+        <v>0.1829541670119568</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8789678543754889</v>
+        <v>0.8789678543754462</v>
       </c>
       <c r="H2">
-        <v>0.5096861365256231</v>
+        <v>0.5096861365256018</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.025457741916753</v>
+        <v>1.025457741916789</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158662091777899</v>
+        <v>2.158662091778069</v>
       </c>
       <c r="C3">
-        <v>0.7513041598389236</v>
+        <v>0.751304159839151</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1591623679569096</v>
+        <v>0.1591623679569025</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7920533771561082</v>
+        <v>0.7920533771561011</v>
       </c>
       <c r="H3">
-        <v>0.4784616462832147</v>
+        <v>0.4784616462832005</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8834264601652322</v>
+        <v>0.8834264601652109</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.953566276687468</v>
+        <v>1.953566276687496</v>
       </c>
       <c r="C4">
-        <v>0.6789531294413109</v>
+        <v>0.6789531294414246</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1450185157804889</v>
+        <v>0.1450185157805279</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0.7419138447540448</v>
       </c>
       <c r="H4">
-        <v>0.4614674570104995</v>
+        <v>0.4614674570104924</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7976024425420007</v>
+        <v>0.797602442542015</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.870394242131738</v>
+        <v>1.870394242131766</v>
       </c>
       <c r="C5">
         <v>0.6496754285705322</v>
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1393571238212381</v>
+        <v>0.1393571238212239</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7222107879953086</v>
+        <v>0.7222107879953228</v>
       </c>
       <c r="H5">
         <v>0.4550404079483599</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7629232822987149</v>
+        <v>0.762923282298722</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856605607238379</v>
+        <v>1.856605607238293</v>
       </c>
       <c r="C6">
-        <v>0.6448251371224103</v>
+        <v>0.6448251371227798</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1384228377981067</v>
+        <v>0.1384228377981138</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0.7189808860101579</v>
       </c>
       <c r="H6">
-        <v>0.4540019273000979</v>
+        <v>0.4540019273001192</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7571811774036661</v>
+        <v>0.7571811774036803</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.952443059672333</v>
+        <v>1.95244305967222</v>
       </c>
       <c r="C7">
         <v>0.6785575005919497</v>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1449417680203986</v>
+        <v>0.1449417680203844</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.7416452732620016</v>
+        <v>0.7416452732619945</v>
       </c>
       <c r="H7">
-        <v>0.4613788245483619</v>
+        <v>0.4613788245483477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.37916137835191</v>
+        <v>2.379161378351739</v>
       </c>
       <c r="C8">
-        <v>0.829333853263762</v>
+        <v>0.8293338532635346</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.174645247541811</v>
+        <v>0.1746452475418323</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9761645933675922</v>
+        <v>0.9761645933676135</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.236280754506879</v>
+        <v>3.236280754506993</v>
       </c>
       <c r="C9">
-        <v>1.135059494038046</v>
+        <v>1.13505949403816</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.34091276803008</v>
+        <v>1.340912768030066</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.885736065561787</v>
+        <v>3.885736065561559</v>
       </c>
       <c r="C10">
-        <v>1.369287293945831</v>
+        <v>1.36928729394549</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2871982579561632</v>
+        <v>0.2871982579561561</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>1.287180335060626</v>
+        <v>1.287180335060597</v>
       </c>
       <c r="H10">
         <v>0.6747012851467105</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.621490286836917</v>
+        <v>1.621490286836902</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.187393703425812</v>
+        <v>4.187393703425755</v>
       </c>
       <c r="C11">
-        <v>1.478847285598874</v>
+        <v>1.478847285598931</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3110362323591076</v>
+        <v>0.3110362323590792</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.38524056478721</v>
+        <v>1.385240564787239</v>
       </c>
       <c r="H11">
-        <v>0.7173181914560232</v>
+        <v>0.7173181914560445</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.752987337364459</v>
+        <v>1.752987337364488</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>4.302704090157249</v>
       </c>
       <c r="C12">
-        <v>1.52085726335838</v>
+        <v>1.520857263358323</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3202575430227341</v>
+        <v>0.320257543022727</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.423552804218929</v>
+        <v>1.423552804218943</v>
       </c>
       <c r="H12">
         <v>0.7341996037597625</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.80344655218957</v>
+        <v>1.803446552189584</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.27781870080355</v>
+        <v>4.277818700803437</v>
       </c>
       <c r="C13">
-        <v>1.511784879876529</v>
+        <v>1.511784879876586</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3182623957934965</v>
+        <v>0.3182623957934609</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>1.415246239959728</v>
+        <v>1.415246239959771</v>
       </c>
       <c r="H13">
-        <v>0.7305290918171607</v>
+        <v>0.7305290918171536</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.79254781063824</v>
+        <v>1.792547810638268</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.196857573599516</v>
+        <v>4.196857573599573</v>
       </c>
       <c r="C14">
-        <v>1.482292450623504</v>
+        <v>1.48229245062339</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3117907909791953</v>
+        <v>0.3117907909792379</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.388367870802085</v>
+        <v>1.388367870802071</v>
       </c>
       <c r="H14">
-        <v>0.7186915173486383</v>
+        <v>0.7186915173486454</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.757124655310889</v>
+        <v>1.757124655310875</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.147413037742126</v>
+        <v>4.147413037742069</v>
       </c>
       <c r="C15">
-        <v>1.464298344020676</v>
+        <v>1.46429834402096</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3078530300367106</v>
+        <v>0.3078530300366822</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.372062964323248</v>
+        <v>1.372062964323263</v>
       </c>
       <c r="H15">
-        <v>0.7115406578861325</v>
+        <v>0.7115406578861254</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.735516947783722</v>
+        <v>1.735516947783736</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.866162371498206</v>
+        <v>3.866162371498319</v>
       </c>
       <c r="C16">
-        <v>1.362195173557154</v>
+        <v>1.362195173557438</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.285665855921593</v>
+        <v>0.2856658559216498</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>1.280927278734282</v>
       </c>
       <c r="H16">
-        <v>0.6720144558121461</v>
+        <v>0.6720144558121532</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.695340276559023</v>
+        <v>3.695340276558966</v>
       </c>
       <c r="C17">
-        <v>1.300388317798138</v>
+        <v>1.300388317798252</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2723674862484415</v>
+        <v>0.2723674862484131</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.226933687401782</v>
+        <v>1.226933687401797</v>
       </c>
       <c r="H17">
         <v>0.648979732632867</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.538874407726738</v>
+        <v>1.538874407726709</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.597660599902952</v>
+        <v>3.597660599903065</v>
       </c>
       <c r="C18">
-        <v>1.265115770276282</v>
+        <v>1.265115770276452</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2648241610045758</v>
+        <v>0.2648241610045972</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>1.196529926142929</v>
+        <v>1.196529926142944</v>
       </c>
       <c r="H18">
-        <v>0.6361455591070992</v>
+        <v>0.6361455591070921</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.564681072777432</v>
+        <v>3.564681072777489</v>
       </c>
       <c r="C19">
         <v>1.253218173858045</v>
@@ -1067,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2622874046682782</v>
+        <v>0.2622874046682853</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>1.186343029510795</v>
+        <v>1.18634302951078</v>
       </c>
       <c r="H19">
-        <v>0.6318685674675706</v>
+        <v>0.6318685674675848</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.482351339223314</v>
+        <v>1.482351339223271</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.713464052088341</v>
+        <v>3.713464052088398</v>
       </c>
       <c r="C20">
-        <v>1.306938476306527</v>
+        <v>1.306938476306414</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2737719935378919</v>
+        <v>0.2737719935378777</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.23261279958038</v>
+        <v>1.232612799580394</v>
       </c>
       <c r="H20">
         <v>0.6513882141412282</v>
@@ -1137,22 +1137,22 @@
         <v>4.22060692133897</v>
       </c>
       <c r="C21">
-        <v>1.490940146488981</v>
+        <v>1.490940146489152</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3136861204631742</v>
+        <v>0.3136861204631458</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.396229259806788</v>
+        <v>1.396229259806802</v>
       </c>
       <c r="H21">
-        <v>0.7221474624823045</v>
+        <v>0.7221474624823117</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.767510321502002</v>
+        <v>1.767510321502016</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.558450632791107</v>
+        <v>4.558450632790993</v>
       </c>
       <c r="C22">
-        <v>1.614290062182477</v>
+        <v>1.614290062182704</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3409227641104664</v>
+        <v>0.3409227641104735</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.51012939293858</v>
+        <v>1.510129392938566</v>
       </c>
       <c r="H22">
-        <v>0.7727824485074493</v>
+        <v>0.772782448507435</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.915739661415799</v>
+        <v>1.915739661415785</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.377483377064607</v>
+        <v>4.37748337706455</v>
       </c>
       <c r="C23">
-        <v>1.548139612952923</v>
+        <v>1.548139612953094</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3262696244505605</v>
+        <v>0.3262696244505818</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>1.448639843730803</v>
       </c>
       <c r="H23">
-        <v>0.7453191834598201</v>
+        <v>0.745319183459813</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.836226543180615</v>
+        <v>1.836226543180601</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.705268661518062</v>
+        <v>3.705268661518232</v>
       </c>
       <c r="C24">
-        <v>1.30397634314437</v>
+        <v>1.303976343144143</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2731367000285374</v>
+        <v>0.2731367000285232</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>1.23004329834508</v>
+        <v>1.230043298345095</v>
       </c>
       <c r="H24">
-        <v>0.6502980736645583</v>
+        <v>0.6502980736645796</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.543175165689135</v>
+        <v>1.543175165689163</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.001527740393044</v>
+        <v>3.001527740393158</v>
       </c>
       <c r="C25">
-        <v>1.050943342608718</v>
+        <v>1.050943342609116</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2197732646993558</v>
+        <v>0.2197732646993913</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.018692932290506</v>
+        <v>1.01869293229052</v>
       </c>
       <c r="H25">
         <v>0.5633708095969681</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.240367233693888</v>
+        <v>1.240367233693902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -412,25 +412,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.495914199744391</v>
+        <v>2.495914199744334</v>
       </c>
       <c r="C2">
-        <v>0.8707526695782803</v>
+        <v>0.8707526695782519</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1829541670119568</v>
+        <v>0.1829541670119781</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8789678543754462</v>
+        <v>0.8789678543754889</v>
       </c>
       <c r="H2">
-        <v>0.5096861365256018</v>
+        <v>0.5096861365256231</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.025457741916789</v>
+        <v>1.025457741916753</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158662091778069</v>
+        <v>2.158662091777899</v>
       </c>
       <c r="C3">
-        <v>0.751304159839151</v>
+        <v>0.7513041598389236</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1591623679569025</v>
+        <v>0.1591623679569096</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7920533771561011</v>
+        <v>0.7920533771561082</v>
       </c>
       <c r="H3">
-        <v>0.4784616462832005</v>
+        <v>0.4784616462832147</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8834264601652109</v>
+        <v>0.8834264601652322</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.953566276687496</v>
+        <v>1.953566276687468</v>
       </c>
       <c r="C4">
-        <v>0.6789531294414246</v>
+        <v>0.6789531294413109</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1450185157805279</v>
+        <v>0.1450185157804889</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0.7419138447540448</v>
       </c>
       <c r="H4">
-        <v>0.4614674570104924</v>
+        <v>0.4614674570104995</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.797602442542015</v>
+        <v>0.7976024425420007</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.870394242131766</v>
+        <v>1.870394242131738</v>
       </c>
       <c r="C5">
         <v>0.6496754285705322</v>
@@ -535,13 +535,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1393571238212239</v>
+        <v>0.1393571238212381</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7222107879953228</v>
+        <v>0.7222107879953086</v>
       </c>
       <c r="H5">
         <v>0.4550404079483599</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.762923282298722</v>
+        <v>0.7629232822987149</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856605607238293</v>
+        <v>1.856605607238379</v>
       </c>
       <c r="C6">
-        <v>0.6448251371227798</v>
+        <v>0.6448251371224103</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1384228377981138</v>
+        <v>0.1384228377981067</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0.7189808860101579</v>
       </c>
       <c r="H6">
-        <v>0.4540019273001192</v>
+        <v>0.4540019273000979</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7571811774036803</v>
+        <v>0.7571811774036661</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.95244305967222</v>
+        <v>1.952443059672333</v>
       </c>
       <c r="C7">
         <v>0.6785575005919497</v>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1449417680203844</v>
+        <v>0.1449417680203986</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7416452732619945</v>
+        <v>0.7416452732620016</v>
       </c>
       <c r="H7">
-        <v>0.4613788245483477</v>
+        <v>0.4613788245483619</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.379161378351739</v>
+        <v>2.37916137835191</v>
       </c>
       <c r="C8">
-        <v>0.8293338532635346</v>
+        <v>0.829333853263762</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1746452475418323</v>
+        <v>0.174645247541811</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9761645933676135</v>
+        <v>0.9761645933675922</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.236280754506993</v>
+        <v>3.236280754506879</v>
       </c>
       <c r="C9">
-        <v>1.13505949403816</v>
+        <v>1.135059494038046</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.340912768030066</v>
+        <v>1.34091276803008</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.885736065561559</v>
+        <v>3.885736065561787</v>
       </c>
       <c r="C10">
-        <v>1.36928729394549</v>
+        <v>1.369287293945831</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2871982579561561</v>
+        <v>0.2871982579561632</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.287180335060597</v>
+        <v>1.287180335060626</v>
       </c>
       <c r="H10">
         <v>0.6747012851467105</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.621490286836902</v>
+        <v>1.621490286836917</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.187393703425755</v>
+        <v>4.187393703425812</v>
       </c>
       <c r="C11">
-        <v>1.478847285598931</v>
+        <v>1.478847285598874</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3110362323590792</v>
+        <v>0.3110362323591076</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.385240564787239</v>
+        <v>1.38524056478721</v>
       </c>
       <c r="H11">
-        <v>0.7173181914560445</v>
+        <v>0.7173181914560232</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.752987337364488</v>
+        <v>1.752987337364459</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>4.302704090157249</v>
       </c>
       <c r="C12">
-        <v>1.520857263358323</v>
+        <v>1.52085726335838</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.320257543022727</v>
+        <v>0.3202575430227341</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.423552804218943</v>
+        <v>1.423552804218929</v>
       </c>
       <c r="H12">
         <v>0.7341996037597625</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.803446552189584</v>
+        <v>1.80344655218957</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.277818700803437</v>
+        <v>4.27781870080355</v>
       </c>
       <c r="C13">
-        <v>1.511784879876586</v>
+        <v>1.511784879876529</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3182623957934609</v>
+        <v>0.3182623957934965</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.415246239959771</v>
+        <v>1.415246239959728</v>
       </c>
       <c r="H13">
-        <v>0.7305290918171536</v>
+        <v>0.7305290918171607</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.792547810638268</v>
+        <v>1.79254781063824</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.196857573599573</v>
+        <v>4.196857573599516</v>
       </c>
       <c r="C14">
-        <v>1.48229245062339</v>
+        <v>1.482292450623504</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3117907909792379</v>
+        <v>0.3117907909791953</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.388367870802071</v>
+        <v>1.388367870802085</v>
       </c>
       <c r="H14">
-        <v>0.7186915173486454</v>
+        <v>0.7186915173486383</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.757124655310875</v>
+        <v>1.757124655310889</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.147413037742069</v>
+        <v>4.147413037742126</v>
       </c>
       <c r="C15">
-        <v>1.46429834402096</v>
+        <v>1.464298344020676</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3078530300366822</v>
+        <v>0.3078530300367106</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.372062964323263</v>
+        <v>1.372062964323248</v>
       </c>
       <c r="H15">
-        <v>0.7115406578861254</v>
+        <v>0.7115406578861325</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.735516947783736</v>
+        <v>1.735516947783722</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.866162371498319</v>
+        <v>3.866162371498206</v>
       </c>
       <c r="C16">
-        <v>1.362195173557438</v>
+        <v>1.362195173557154</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2856658559216498</v>
+        <v>0.285665855921593</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,7 +962,7 @@
         <v>1.280927278734282</v>
       </c>
       <c r="H16">
-        <v>0.6720144558121532</v>
+        <v>0.6720144558121461</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.695340276558966</v>
+        <v>3.695340276559023</v>
       </c>
       <c r="C17">
-        <v>1.300388317798252</v>
+        <v>1.300388317798138</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2723674862484131</v>
+        <v>0.2723674862484415</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.226933687401797</v>
+        <v>1.226933687401782</v>
       </c>
       <c r="H17">
         <v>0.648979732632867</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.538874407726709</v>
+        <v>1.538874407726738</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.597660599903065</v>
+        <v>3.597660599902952</v>
       </c>
       <c r="C18">
-        <v>1.265115770276452</v>
+        <v>1.265115770276282</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2648241610045972</v>
+        <v>0.2648241610045758</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.196529926142944</v>
+        <v>1.196529926142929</v>
       </c>
       <c r="H18">
-        <v>0.6361455591070921</v>
+        <v>0.6361455591070992</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.564681072777489</v>
+        <v>3.564681072777432</v>
       </c>
       <c r="C19">
         <v>1.253218173858045</v>
@@ -1067,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2622874046682853</v>
+        <v>0.2622874046682782</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.18634302951078</v>
+        <v>1.186343029510795</v>
       </c>
       <c r="H19">
-        <v>0.6318685674675848</v>
+        <v>0.6318685674675706</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.482351339223271</v>
+        <v>1.482351339223314</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.713464052088398</v>
+        <v>3.713464052088341</v>
       </c>
       <c r="C20">
-        <v>1.306938476306414</v>
+        <v>1.306938476306527</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2737719935378777</v>
+        <v>0.2737719935378919</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.232612799580394</v>
+        <v>1.23261279958038</v>
       </c>
       <c r="H20">
         <v>0.6513882141412282</v>
@@ -1137,22 +1137,22 @@
         <v>4.22060692133897</v>
       </c>
       <c r="C21">
-        <v>1.490940146489152</v>
+        <v>1.490940146488981</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3136861204631458</v>
+        <v>0.3136861204631742</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.396229259806802</v>
+        <v>1.396229259806788</v>
       </c>
       <c r="H21">
-        <v>0.7221474624823117</v>
+        <v>0.7221474624823045</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.767510321502016</v>
+        <v>1.767510321502002</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.558450632790993</v>
+        <v>4.558450632791107</v>
       </c>
       <c r="C22">
-        <v>1.614290062182704</v>
+        <v>1.614290062182477</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3409227641104735</v>
+        <v>0.3409227641104664</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.510129392938566</v>
+        <v>1.51012939293858</v>
       </c>
       <c r="H22">
-        <v>0.772782448507435</v>
+        <v>0.7727824485074493</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.915739661415785</v>
+        <v>1.915739661415799</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.37748337706455</v>
+        <v>4.377483377064607</v>
       </c>
       <c r="C23">
-        <v>1.548139612953094</v>
+        <v>1.548139612952923</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3262696244505818</v>
+        <v>0.3262696244505605</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
         <v>1.448639843730803</v>
       </c>
       <c r="H23">
-        <v>0.745319183459813</v>
+        <v>0.7453191834598201</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.836226543180601</v>
+        <v>1.836226543180615</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.705268661518232</v>
+        <v>3.705268661518062</v>
       </c>
       <c r="C24">
-        <v>1.303976343144143</v>
+        <v>1.30397634314437</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2731367000285232</v>
+        <v>0.2731367000285374</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.230043298345095</v>
+        <v>1.23004329834508</v>
       </c>
       <c r="H24">
-        <v>0.6502980736645796</v>
+        <v>0.6502980736645583</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.543175165689163</v>
+        <v>1.543175165689135</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.001527740393158</v>
+        <v>3.001527740393044</v>
       </c>
       <c r="C25">
-        <v>1.050943342609116</v>
+        <v>1.050943342608718</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2197732646993913</v>
+        <v>0.2197732646993558</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.01869293229052</v>
+        <v>1.018692932290506</v>
       </c>
       <c r="H25">
         <v>0.5633708095969681</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.240367233693902</v>
+        <v>1.240367233693888</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.495914199744334</v>
+        <v>2.495846876157714</v>
       </c>
       <c r="C2">
-        <v>0.8707526695782519</v>
+        <v>0.8701846151946881</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1829541670119781</v>
+        <v>0.1829755636798325</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8789678543754889</v>
+        <v>0.2787238351490942</v>
       </c>
       <c r="H2">
-        <v>0.5096861365256231</v>
+        <v>0.6019180774033543</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5081859059861316</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.025457741916753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.02534596874434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.158662091777899</v>
+        <v>2.15863939732111</v>
       </c>
       <c r="C3">
-        <v>0.7513041598389236</v>
+        <v>0.7508275234048654</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1591623679569096</v>
+        <v>0.1591824399444945</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7920533771561082</v>
+        <v>0.2469078164420964</v>
       </c>
       <c r="H3">
-        <v>0.4784616462832147</v>
+        <v>0.5471818350112372</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4771214840536047</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8834264601652322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8833389832644372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.953566276687468</v>
+        <v>1.953566499964211</v>
       </c>
       <c r="C4">
-        <v>0.6789531294413109</v>
+        <v>0.6785302085692422</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1450185157804889</v>
+        <v>0.1450378591424375</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.7419138447540448</v>
+        <v>0.2284112871974102</v>
       </c>
       <c r="H4">
-        <v>0.4614674570104995</v>
+        <v>0.5157543972099816</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4602227729482138</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7976024425420007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7975280877536832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.870394242131738</v>
+        <v>1.870402830525592</v>
       </c>
       <c r="C5">
-        <v>0.6496754285705322</v>
+        <v>0.6492738846696682</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1393571238212381</v>
+        <v>0.1393761943258909</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.7222107879953086</v>
+        <v>0.2211070318596882</v>
       </c>
       <c r="H5">
-        <v>0.4550404079483599</v>
+        <v>0.5034419738208271</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4538340333000974</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7629232822987149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.762853889719338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856605607238379</v>
+        <v>1.856615529988744</v>
       </c>
       <c r="C6">
-        <v>0.6448251371224103</v>
+        <v>0.6444271144678737</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1384228377981067</v>
+        <v>0.1384418645123127</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.7189808860101579</v>
+        <v>0.2199074805185859</v>
       </c>
       <c r="H6">
-        <v>0.4540019273000979</v>
+        <v>0.5014258845016144</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.452801880634496</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7571811774036661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7571125873191846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.952443059672333</v>
+        <v>1.952443399517392</v>
       </c>
       <c r="C7">
-        <v>0.6785575005919497</v>
+        <v>0.678134869974798</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1449417680203986</v>
+        <v>0.1449611076020325</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.7416452732620016</v>
+        <v>0.2283118703088505</v>
       </c>
       <c r="H7">
-        <v>0.4613788245483619</v>
+        <v>0.5155864131539261</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4601346594320717</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7971336202986947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.7970593339101839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.37916137835191</v>
+        <v>2.379110471932506</v>
       </c>
       <c r="C8">
-        <v>0.829333853263762</v>
+        <v>0.8287978816675263</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.174645247541811</v>
+        <v>0.1746661718352556</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.8482784231658727</v>
+        <v>0.2675205019546638</v>
       </c>
       <c r="H8">
-        <v>0.4984368392440999</v>
+        <v>0.5825584510455855</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4969924502543606</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9761645933675922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9760616130163982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.236280754506879</v>
+        <v>3.236085761857055</v>
       </c>
       <c r="C9">
-        <v>1.135059494038046</v>
+        <v>1.134277164319144</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2373087940454042</v>
+        <v>0.2373333127544228</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>1.087105918617198</v>
+        <v>0.354052569071527</v>
       </c>
       <c r="H9">
-        <v>0.5908624048572548</v>
+        <v>0.7338993313585718</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5889975973161157</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.34091276803008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.34073575244085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.885736065561787</v>
+        <v>3.885395422527893</v>
       </c>
       <c r="C10">
-        <v>1.369287293945831</v>
+        <v>1.368301164625564</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2871982579561632</v>
+        <v>0.2872253248552568</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.287180335060626</v>
+        <v>0.4257160909764224</v>
       </c>
       <c r="H10">
-        <v>0.6747012851467105</v>
+        <v>0.8615468677285207</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.6725015924777651</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.621490286836917</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.621242136150357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.187393703425812</v>
+        <v>4.186974464669788</v>
       </c>
       <c r="C11">
-        <v>1.478847285598874</v>
+        <v>1.47776123813145</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3110362323591076</v>
+        <v>0.3110642986489722</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.38524056478721</v>
+        <v>0.4606518063158234</v>
       </c>
       <c r="H11">
-        <v>0.7173181914560232</v>
+        <v>0.9243048994533893</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.7149579970386597</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.752987337364459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.752701498690129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.302704090157249</v>
+        <v>4.302252930728173</v>
       </c>
       <c r="C12">
-        <v>1.52085726335838</v>
+        <v>1.519732110127677</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3202575430227341</v>
+        <v>0.3202859475584745</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.423552804218929</v>
+        <v>0.4742734749987676</v>
       </c>
       <c r="H12">
-        <v>0.7341996037597625</v>
+        <v>0.9488533457828794</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.7317772003571008</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.80344655218957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.803145496666374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.27781870080355</v>
+        <v>4.277374518980537</v>
       </c>
       <c r="C13">
-        <v>1.511784879876529</v>
+        <v>1.510668209392236</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3182623957934965</v>
+        <v>0.3182907296062609</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.415246239959728</v>
+        <v>0.4713213710163018</v>
       </c>
       <c r="H13">
-        <v>0.7305290918171607</v>
+        <v>0.9435296536951228</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.728120154470794</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.79254781063824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.792250077639366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.196857573599516</v>
+        <v>4.196435754433367</v>
       </c>
       <c r="C14">
-        <v>1.482292450623504</v>
+        <v>1.481203212823971</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3117907909791953</v>
+        <v>0.3118188860215554</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.388367870802085</v>
+        <v>0.4617642548241463</v>
       </c>
       <c r="H14">
-        <v>0.7186915173486383</v>
+        <v>0.9263081350408697</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.7163262352749626</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.757124655310889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.756837584842998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.147413037742126</v>
+        <v>4.147004622612258</v>
       </c>
       <c r="C15">
-        <v>1.464298344020676</v>
+        <v>1.463225736625134</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3078530300367106</v>
+        <v>0.307880972981863</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.372062964323248</v>
+        <v>0.4559631452520279</v>
       </c>
       <c r="H15">
-        <v>0.7115406578861325</v>
+        <v>0.9158649736216802</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.7092019211875069</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.735516947783722</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.735236279366561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.866162371498206</v>
+        <v>3.865826585436992</v>
       </c>
       <c r="C16">
-        <v>1.362195173557154</v>
+        <v>1.361215410187981</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.285665855921593</v>
+        <v>0.2856928529444147</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.280927278734282</v>
+        <v>0.4234845981923741</v>
       </c>
       <c r="H16">
-        <v>0.6720144558121461</v>
+        <v>0.8575488204404422</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.6698250671977064</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.612983292461266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.612737483086477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.695340276559023</v>
+        <v>3.695045635096562</v>
       </c>
       <c r="C17">
-        <v>1.300388317798138</v>
+        <v>1.299463512867021</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2723674862484415</v>
+        <v>0.2723938514578919</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.226933687401782</v>
+        <v>0.4041959316574406</v>
       </c>
       <c r="H17">
-        <v>0.648979732632867</v>
+        <v>0.8230477722750322</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.6468797056575966</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.538874407726738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.538648502426099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.597660599902952</v>
+        <v>3.597388489217451</v>
       </c>
       <c r="C18">
-        <v>1.265115770276282</v>
+        <v>1.264221913679535</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2648241610045758</v>
+        <v>0.2648501490812123</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.196529926142929</v>
+        <v>0.3933176245231351</v>
       </c>
       <c r="H18">
-        <v>0.6361455591070992</v>
+        <v>0.8036378129665565</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.6340961803365559</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.496604965390773</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.496390019522565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.564681072777432</v>
+        <v>3.564416406304701</v>
       </c>
       <c r="C19">
-        <v>1.253218173858045</v>
+        <v>1.252334688472388</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2622874046682782</v>
+        <v>0.2623132631341321</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.186343029510795</v>
+        <v>0.3896699288274306</v>
       </c>
       <c r="H19">
-        <v>0.6318685674675706</v>
+        <v>0.7971374287411521</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.6298362155307444</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.482351339223314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.482140024936115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.713464052088341</v>
+        <v>3.713165150679231</v>
       </c>
       <c r="C20">
-        <v>1.306938476306527</v>
+        <v>1.306007891047273</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2737719935378919</v>
+        <v>0.2737984275333716</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.23261279958038</v>
+        <v>0.4062265024277281</v>
       </c>
       <c r="H20">
-        <v>0.6513882141412282</v>
+        <v>0.8266747977042712</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.649278753826195</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.546725838326125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.546497865978267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.22060692133897</v>
+        <v>4.220178595727589</v>
       </c>
       <c r="C21">
-        <v>1.490940146488981</v>
+        <v>1.489842887557757</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3136861204631742</v>
+        <v>0.3137142868951273</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.396229259806788</v>
+        <v>0.4645602746045085</v>
       </c>
       <c r="H21">
-        <v>0.7221474624823045</v>
+        <v>0.9313443058167792</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.719769398909591</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.767510321502002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.767220146460716</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.558450632791107</v>
+        <v>4.557924904938432</v>
       </c>
       <c r="C22">
-        <v>1.614290062182477</v>
+        <v>1.613076333755203</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3409227641104664</v>
+        <v>0.3409518159718701</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>1.51012939293858</v>
+        <v>0.5050036830210871</v>
       </c>
       <c r="H22">
-        <v>0.7727824485074493</v>
+        <v>1.004380433525981</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.770220342652479</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.915739661415799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.915403211174919</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.377483377064607</v>
+        <v>4.37701095487148</v>
       </c>
       <c r="C23">
-        <v>1.548139612952923</v>
+        <v>1.546988825299024</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3262696244505605</v>
+        <v>0.3262982336042271</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>1.448639843730803</v>
+        <v>0.4831852131104171</v>
       </c>
       <c r="H23">
-        <v>0.7453191834598201</v>
+        <v>0.9649358710312015</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.7428561799075624</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.836226543180615</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.8359153749538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.705268661518062</v>
+        <v>3.704971689503282</v>
       </c>
       <c r="C24">
-        <v>1.30397634314437</v>
+        <v>1.303048373172999</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2731367000285374</v>
+        <v>0.2731631029679491</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.23004329834508</v>
+        <v>0.4053078283056664</v>
       </c>
       <c r="H24">
-        <v>0.6502980736645583</v>
+        <v>0.8250337032693693</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.6481928804079757</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.543175165689135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.542948129346939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.001527740393044</v>
+        <v>3.001377626974943</v>
       </c>
       <c r="C25">
-        <v>1.050943342608718</v>
+        <v>1.050230997920409</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2197732646993558</v>
+        <v>0.2197967909818388</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>1.018692932290506</v>
+        <v>0.3293991064884381</v>
       </c>
       <c r="H25">
-        <v>0.5633708095969681</v>
+        <v>0.6904072234933523</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.561623560839962</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.240367233693888</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.240212694821452</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.495846876157714</v>
+        <v>2.382766166363751</v>
       </c>
       <c r="C2">
-        <v>0.8701846151946881</v>
+        <v>0.5461102231158179</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1829755636798325</v>
+        <v>0.4422090425753424</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.867956864122903</v>
       </c>
       <c r="G2">
-        <v>0.2787238351490942</v>
+        <v>0.0007960061433284708</v>
       </c>
       <c r="H2">
-        <v>0.6019180774033543</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5081859059861316</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.09247720046939634</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6552129531255844</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.02534596874434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.117637886355254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.15863939732111</v>
+        <v>2.058147200128019</v>
       </c>
       <c r="C3">
-        <v>0.7508275234048654</v>
+        <v>0.4718607082261599</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1591824399444945</v>
+        <v>0.3859438010895815</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.571750914683946</v>
       </c>
       <c r="G3">
-        <v>0.2469078164420964</v>
+        <v>0.0008040974672596861</v>
       </c>
       <c r="H3">
-        <v>0.5471818350112372</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4771214840536047</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.085262355432981</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5655647894666629</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8833389832644372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.029957312152845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.953566499964211</v>
+        <v>1.861487489590928</v>
       </c>
       <c r="C4">
-        <v>0.6785302085692422</v>
+        <v>0.4267928724620162</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1450378591424375</v>
+        <v>0.3518323148480746</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.396314280591895</v>
       </c>
       <c r="G4">
-        <v>0.2284112871974102</v>
+        <v>0.0008091839782726664</v>
       </c>
       <c r="H4">
-        <v>0.5157543972099816</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4602227729482138</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.08113291358512242</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5112248330088818</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7975280877536832</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.9795547905508002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.870402830525592</v>
+        <v>1.781913542705837</v>
       </c>
       <c r="C5">
-        <v>0.6492738846696682</v>
+        <v>0.408534832481962</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1393761943258909</v>
+        <v>0.3380260738514451</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.326273820594722</v>
       </c>
       <c r="G5">
-        <v>0.2211070318596882</v>
+        <v>0.000811288238153392</v>
       </c>
       <c r="H5">
-        <v>0.5034419738208271</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4538340333000974</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07951840549528555</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4892297870572051</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.762853889719338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.9597975293937537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.856615529988744</v>
+        <v>1.768731757042133</v>
       </c>
       <c r="C6">
-        <v>0.6444271144678737</v>
+        <v>0.4055089380082677</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1384418645123127</v>
+        <v>0.3357388496140459</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.314726710544747</v>
       </c>
       <c r="G6">
-        <v>0.2199074805185859</v>
+        <v>0.0008116395962040122</v>
       </c>
       <c r="H6">
-        <v>0.5014258845016144</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.452801880634496</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07925423994921488</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4855857445876808</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7571125873191846</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.9565618460628613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.952443399517392</v>
+        <v>1.860412161891418</v>
       </c>
       <c r="C7">
-        <v>0.678134869974798</v>
+        <v>0.4265462327580565</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1449611076020325</v>
+        <v>0.3516457554597139</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.395364023834389</v>
       </c>
       <c r="G7">
-        <v>0.2283118703088505</v>
+        <v>0.0008092122275204508</v>
       </c>
       <c r="H7">
-        <v>0.5155864131539261</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4601346594320717</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08111087250607341</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5109276325643819</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7970593339101839</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.9792852726417607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.379110471932506</v>
+        <v>2.270221688526249</v>
       </c>
       <c r="C8">
-        <v>0.8287978816675263</v>
+        <v>0.520385719968715</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1746661718352556</v>
+        <v>0.4227088397712961</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.764384401306813</v>
       </c>
       <c r="G8">
-        <v>0.2675205019546638</v>
+        <v>0.000798772520257103</v>
       </c>
       <c r="H8">
-        <v>0.5825584510455855</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4969924502543606</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0899225573828204</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6241382656318279</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9760616130163982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.086641810540897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.236085761857055</v>
+        <v>3.100090183400255</v>
       </c>
       <c r="C9">
-        <v>1.134277164319144</v>
+        <v>0.7097486622510303</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2373333127544228</v>
+        <v>0.5662871294760308</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>3.547474713520245</v>
       </c>
       <c r="G9">
-        <v>0.354052569071527</v>
+        <v>0.0007791551129913446</v>
       </c>
       <c r="H9">
-        <v>0.7338993313585718</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5889975973161157</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.109953205632209</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8531599182781946</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.34073575244085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.328485456068449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.885395422527893</v>
+        <v>3.733922007905164</v>
       </c>
       <c r="C10">
-        <v>1.368301164625564</v>
+        <v>0.8540479839809905</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2872253248552568</v>
+        <v>0.6755715590999074</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>4.172255706451296</v>
       </c>
       <c r="G10">
-        <v>0.4257160909764224</v>
+        <v>0.0007651306810224222</v>
       </c>
       <c r="H10">
-        <v>0.8615468677285207</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6725015924777651</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1269251518551329</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.027958557532656</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.621242136150357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1.531660788951768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.186974464669788</v>
+        <v>4.0296301635247</v>
       </c>
       <c r="C11">
-        <v>1.47776123813145</v>
+        <v>0.9213214748765211</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3110642986489722</v>
+        <v>0.726433904872934</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>4.470668673989479</v>
       </c>
       <c r="G11">
-        <v>0.4606518063158234</v>
+        <v>0.0007588006571942279</v>
       </c>
       <c r="H11">
-        <v>0.9243048994533893</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7149579970386597</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1352875577302299</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.109489075004262</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.752701498690129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1.631295518757881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.302252930728173</v>
+        <v>4.142873645657119</v>
       </c>
       <c r="C12">
-        <v>1.519732110127677</v>
+        <v>0.9470800678610658</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3202859475584745</v>
+        <v>0.7458906182981053</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>4.586047582361147</v>
       </c>
       <c r="G12">
-        <v>0.4742734749987676</v>
+        <v>0.0007564074873376047</v>
       </c>
       <c r="H12">
-        <v>0.9488533457828794</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7317772003571008</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1385613552173766</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.140709576864694</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.803145496666374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1.67022430857503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.277374518980537</v>
+        <v>4.118424789408834</v>
       </c>
       <c r="C13">
-        <v>1.510668209392236</v>
+        <v>0.9415190218229554</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3182907296062609</v>
+        <v>0.7416909936806206</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>4.561087124345534</v>
       </c>
       <c r="G13">
-        <v>0.4713213710163018</v>
+        <v>0.0007569227842829698</v>
       </c>
       <c r="H13">
-        <v>0.9435296536951228</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.728120154470794</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1378512592534307</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.13396926725737</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.792250077639366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1.661784116258431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.196435754433367</v>
+        <v>4.038920139018558</v>
       </c>
       <c r="C14">
-        <v>1.481203212823971</v>
+        <v>0.9234346594038811</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3118188860215554</v>
+        <v>0.7280304926462264</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>4.480111248597865</v>
       </c>
       <c r="G14">
-        <v>0.4617642548241463</v>
+        <v>0.0007586037124007665</v>
       </c>
       <c r="H14">
-        <v>0.9263081350408697</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7163262352749626</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1355546549408473</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.112050300381497</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.756837584842998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1.634473163103479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.147004622612258</v>
+        <v>3.990392586632765</v>
       </c>
       <c r="C15">
-        <v>1.463225736625134</v>
+        <v>0.9123959756696252</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.307880972981863</v>
+        <v>0.7196896001587163</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>4.430831424755837</v>
       </c>
       <c r="G15">
-        <v>0.4559631452520279</v>
+        <v>0.0007596337285504849</v>
       </c>
       <c r="H15">
-        <v>0.9158649736216802</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7092019211875069</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1341623488241481</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.098671280530624</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.735236279366561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1.617905822150718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.865826585436992</v>
+        <v>3.714762040163464</v>
       </c>
       <c r="C16">
-        <v>1.361215410187981</v>
+        <v>0.8496883543668616</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2856928529444147</v>
+        <v>0.6722732509507665</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>4.153066954309679</v>
       </c>
       <c r="G16">
-        <v>0.4234845981923741</v>
+        <v>0.0007655450937470264</v>
       </c>
       <c r="H16">
-        <v>0.8575488204404422</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6698250671977064</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1263927839445316</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.02267556633366</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.612737483086477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.525307874272954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.695045635096562</v>
+        <v>3.547697401512607</v>
       </c>
       <c r="C17">
-        <v>1.299463512867021</v>
+        <v>0.8116697065867697</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2723938514578919</v>
+        <v>0.643499731457041</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>3.986527397780463</v>
       </c>
       <c r="G17">
-        <v>0.4041959316574406</v>
+        <v>0.000769182071554273</v>
       </c>
       <c r="H17">
-        <v>0.8230477722750322</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6468797056575966</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1218006889700405</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9766085737221317</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.538648502426099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1.4704571476327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.597388489217451</v>
+        <v>3.452286580921452</v>
       </c>
       <c r="C18">
-        <v>1.264221913679535</v>
+        <v>0.7899525788270978</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2648501490812123</v>
+        <v>0.6270559402427267</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.89205191072034</v>
       </c>
       <c r="G18">
-        <v>0.3933176245231351</v>
+        <v>0.0007712788696608852</v>
       </c>
       <c r="H18">
-        <v>0.8036378129665565</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6340961803365559</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1192188393051836</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9502977431274928</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.496390019522565</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1.439576046914468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.564416406304701</v>
+        <v>3.42009318388142</v>
       </c>
       <c r="C19">
-        <v>1.252334688472388</v>
+        <v>0.7826239477246872</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2623132631341321</v>
+        <v>0.6215056799799044</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.860280307249667</v>
       </c>
       <c r="G19">
-        <v>0.3896699288274306</v>
+        <v>0.0007719897446904037</v>
       </c>
       <c r="H19">
-        <v>0.7971374287411521</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6298362155307444</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1183544535636116</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9414196285171812</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.482140024936115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1.429230307129686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.713165150679231</v>
+        <v>3.565409912272173</v>
       </c>
       <c r="C20">
-        <v>1.306007891047273</v>
+        <v>0.8157009794609849</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2737984275333716</v>
+        <v>0.646551542371725</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>4.004117582794464</v>
       </c>
       <c r="G20">
-        <v>0.4062265024277281</v>
+        <v>0.0007687944237989916</v>
       </c>
       <c r="H20">
-        <v>0.8266747977042712</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.649278753826195</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.122283276694418</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9814928779501031</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.546497865978267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1.476225903254601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.220178595727589</v>
+        <v>4.062236467206333</v>
       </c>
       <c r="C21">
-        <v>1.489842887557757</v>
+        <v>0.9287383514360101</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3137142868951273</v>
+        <v>0.7320373159451492</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>4.503828421468853</v>
       </c>
       <c r="G21">
-        <v>0.4645602746045085</v>
+        <v>0.0007581099064470326</v>
       </c>
       <c r="H21">
-        <v>0.9313443058167792</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.719769398909591</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1362261863570211</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.118478527891867</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.767220146460716</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1.642461091102348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.557924904938432</v>
+        <v>4.394433145216681</v>
       </c>
       <c r="C22">
-        <v>1.613076333755203</v>
+        <v>1.004296038499973</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3409518159718701</v>
+        <v>0.7890690103833577</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>4.84446190569372</v>
       </c>
       <c r="G22">
-        <v>0.5050036830210871</v>
+        <v>0.0007511476598502099</v>
       </c>
       <c r="H22">
-        <v>1.004380433525981</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.770220342652479</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1459717163394814</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.210059924845851</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.915403211174919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1.758188994623396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.37701095487148</v>
+        <v>4.216372478076153</v>
       </c>
       <c r="C23">
-        <v>1.546988825299024</v>
+        <v>0.9637974635817557</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3262982336042271</v>
+        <v>0.7585122908923125</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>4.66125065565447</v>
       </c>
       <c r="G23">
-        <v>0.4831852131104171</v>
+        <v>0.0007548628563177161</v>
       </c>
       <c r="H23">
-        <v>0.9649358710312015</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7428561799075624</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1407069181137217</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.160972235586868</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.8359153749538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1.695714596953508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.704971689503282</v>
+        <v>3.557400117549378</v>
       </c>
       <c r="C24">
-        <v>1.303048373172999</v>
+        <v>0.8138780076019714</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2731631029679491</v>
+        <v>0.6451715141775054</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>3.996161128054467</v>
       </c>
       <c r="G24">
-        <v>0.4053078283056664</v>
+        <v>0.0007689696609136013</v>
       </c>
       <c r="H24">
-        <v>0.8250337032693693</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6481928804079757</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1220649185753473</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9792841471861777</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.542948129346939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1.473615825897923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.001377626974943</v>
+        <v>2.871999767650038</v>
       </c>
       <c r="C25">
-        <v>1.050230997920409</v>
+        <v>0.6577656149259496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2197967909818388</v>
+        <v>0.5268762735661241</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>3.327997200461056</v>
       </c>
       <c r="G25">
-        <v>0.3293991064884381</v>
+        <v>0.0007843834046382669</v>
       </c>
       <c r="H25">
-        <v>0.6904072234933523</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.561623560839962</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1041844902846236</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7902357923338599</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.240212694821452</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.259093268487689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.382766166363751</v>
+        <v>2.434721139815338</v>
       </c>
       <c r="C2">
-        <v>0.5461102231158179</v>
+        <v>0.339743232039794</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4422090425753424</v>
+        <v>0.04038949184004714</v>
       </c>
       <c r="F2">
-        <v>2.867956864122903</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007960061433284708</v>
+        <v>0.0007885949426456741</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2370330482086658</v>
       </c>
       <c r="J2">
-        <v>0.09247720046939634</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6552129531255844</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3107202565118143</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.759164552839998</v>
       </c>
       <c r="O2">
-        <v>1.117637886355254</v>
+        <v>1.305990402562685</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.058147200128019</v>
+        <v>2.116982295601304</v>
       </c>
       <c r="C3">
-        <v>0.4718607082261599</v>
+        <v>0.3063397771826288</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3859438010895815</v>
+        <v>0.03942773943061972</v>
       </c>
       <c r="F3">
-        <v>2.571750914683946</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008040974672596861</v>
+        <v>0.0007925279383314533</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.238741094441874</v>
       </c>
       <c r="J3">
-        <v>0.085262355432981</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5655647894666629</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2731189984189797</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7656376131976046</v>
       </c>
       <c r="O3">
-        <v>1.029957312152845</v>
+        <v>1.238313073695878</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.861487489590928</v>
+        <v>1.922214172605464</v>
       </c>
       <c r="C4">
-        <v>0.4267928724620162</v>
+        <v>0.2857903989284409</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3518323148480746</v>
+        <v>0.03891268834613371</v>
       </c>
       <c r="F4">
-        <v>2.396314280591895</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008091839782726664</v>
+        <v>0.0007950228789411334</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2405527249357604</v>
       </c>
       <c r="J4">
-        <v>0.08113291358512242</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5112248330088818</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2502834756278673</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7705562358646532</v>
       </c>
       <c r="O4">
-        <v>0.9795547905508002</v>
+        <v>1.200283185878746</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.781913542705837</v>
+        <v>1.842900971943521</v>
       </c>
       <c r="C5">
-        <v>0.408534832481962</v>
+        <v>0.2774042770972471</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3380260738514451</v>
+        <v>0.0387210349805347</v>
       </c>
       <c r="F5">
-        <v>2.326273820594722</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.000811288238153392</v>
+        <v>0.0007960600881139648</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2414737296246692</v>
       </c>
       <c r="J5">
-        <v>0.07951840549528555</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4892297870572051</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2410350897680331</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7727907105340535</v>
       </c>
       <c r="O5">
-        <v>0.9597975293937537</v>
+        <v>1.185619626286623</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.768731757042133</v>
+        <v>1.829733772068948</v>
       </c>
       <c r="C6">
-        <v>0.4055089380082677</v>
+        <v>0.2760109784511968</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3357388496140459</v>
+        <v>0.03869029126003909</v>
       </c>
       <c r="F6">
-        <v>2.314726710544747</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008116395962040122</v>
+        <v>0.0007962335645196526</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2416374419511165</v>
       </c>
       <c r="J6">
-        <v>0.07925423994921488</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4855857445876808</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2395026909430413</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7731754341404056</v>
       </c>
       <c r="O6">
-        <v>0.9565618460628613</v>
+        <v>1.183233641012393</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.860412161891418</v>
+        <v>1.921144331010993</v>
       </c>
       <c r="C7">
-        <v>0.4265462327580565</v>
+        <v>0.285677352404349</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3516457554597139</v>
+        <v>0.0389100307710919</v>
       </c>
       <c r="F7">
-        <v>2.395364023834389</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008092122275204508</v>
+        <v>0.0007950367835834146</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2405644176675352</v>
       </c>
       <c r="J7">
-        <v>0.08111087250607341</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5109276325643819</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2501585245155269</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7705854484990695</v>
       </c>
       <c r="O7">
-        <v>0.9792852726417607</v>
+        <v>1.200082118648268</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.270221688526249</v>
+        <v>2.325081571803253</v>
       </c>
       <c r="C8">
-        <v>0.520385719968715</v>
+        <v>0.328232573593084</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4227088397712961</v>
+        <v>0.0400417584491457</v>
       </c>
       <c r="F8">
-        <v>2.764384401306813</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000798772520257103</v>
+        <v>0.0007899346488004005</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2374580453568313</v>
       </c>
       <c r="J8">
-        <v>0.0899225573828204</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6241382656318279</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2976993353313304</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.761195983039201</v>
       </c>
       <c r="O8">
-        <v>1.086641810540897</v>
+        <v>1.281891503372833</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.100090183400255</v>
+        <v>3.121037113784155</v>
       </c>
       <c r="C9">
-        <v>0.7097486622510303</v>
+        <v>0.4114785686583389</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5662871294760308</v>
+        <v>0.04289515898715557</v>
       </c>
       <c r="F9">
-        <v>3.547474713520245</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007791551129913446</v>
+        <v>0.0007805470663595086</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2378510936339637</v>
       </c>
       <c r="J9">
-        <v>0.109953205632209</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8531599182781946</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3932176234441158</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7506245635210291</v>
       </c>
       <c r="O9">
-        <v>1.328485456068449</v>
+        <v>1.472781474389279</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.733922007905164</v>
+        <v>3.7100951012564</v>
       </c>
       <c r="C10">
-        <v>0.8540479839809905</v>
+        <v>0.47268499405547</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6755715590999074</v>
+        <v>0.04542986751589417</v>
       </c>
       <c r="F10">
-        <v>4.172255706451296</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007651306810224222</v>
+        <v>0.0007740005395952976</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2427276951535973</v>
       </c>
       <c r="J10">
-        <v>0.1269251518551329</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.027958557532656</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4652304914884269</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.7481552688233677</v>
       </c>
       <c r="O10">
-        <v>1.531660788951768</v>
+        <v>1.635295817179582</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.0296301635247</v>
+        <v>3.979468077544709</v>
       </c>
       <c r="C11">
-        <v>0.9213214748765211</v>
+        <v>0.5005813680160145</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.726433904872934</v>
+        <v>0.04669032957696828</v>
       </c>
       <c r="F11">
-        <v>4.470668673989479</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007588006571942279</v>
+        <v>0.0007710923305085899</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2460931494044196</v>
       </c>
       <c r="J11">
-        <v>0.1352875577302299</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.109489075004262</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4984945978355739</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.748305455750895</v>
       </c>
       <c r="O11">
-        <v>1.631295518757881</v>
+        <v>1.714945113926433</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.142873645657119</v>
+        <v>4.081716202490213</v>
       </c>
       <c r="C12">
-        <v>0.9470800678610658</v>
+        <v>0.5111563992842605</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7458906182981053</v>
+        <v>0.04718415794570241</v>
       </c>
       <c r="F12">
-        <v>4.586047582361147</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007564074873376047</v>
+        <v>0.000770000572441587</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2475460520700956</v>
       </c>
       <c r="J12">
-        <v>0.1385613552173766</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.140709576864694</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5111727851425911</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7485565176107087</v>
       </c>
       <c r="O12">
-        <v>1.67022430857503</v>
+        <v>1.746008089022894</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.118424789408834</v>
+        <v>4.059683785173831</v>
       </c>
       <c r="C13">
-        <v>0.9415190218229554</v>
+        <v>0.5088783140988085</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7416909936806206</v>
+        <v>0.04707705067120749</v>
       </c>
       <c r="F13">
-        <v>4.561087124345534</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007569227842829698</v>
+        <v>0.0007702352875204648</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2472249798406914</v>
       </c>
       <c r="J13">
-        <v>0.1378512592534307</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.13396926725737</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5084385197815209</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7484936259720598</v>
       </c>
       <c r="O13">
-        <v>1.661784116258431</v>
+        <v>1.739276707838229</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.038920139018558</v>
+        <v>3.987874992904324</v>
       </c>
       <c r="C14">
-        <v>0.9234346594038811</v>
+        <v>0.501451134182588</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.7280304926462264</v>
+        <v>0.04673061968216885</v>
       </c>
       <c r="F14">
-        <v>4.480111248597865</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007586037124007665</v>
+        <v>0.0007710023233310731</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2462090226767515</v>
       </c>
       <c r="J14">
-        <v>0.1355546549408473</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.112050300381497</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4995359458057038</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7483221528230217</v>
       </c>
       <c r="O14">
-        <v>1.634473163103479</v>
+        <v>1.717482143267318</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.990392586632765</v>
+        <v>3.943922848360785</v>
       </c>
       <c r="C15">
-        <v>0.9123959756696252</v>
+        <v>0.4969033542595866</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7196896001587163</v>
+        <v>0.0465206049451421</v>
       </c>
       <c r="F15">
-        <v>4.430831424755837</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007596337285504849</v>
+        <v>0.0007714733781412099</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2456103806787056</v>
       </c>
       <c r="J15">
-        <v>0.1341623488241481</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.098671280530624</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4940937973792501</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7482427511291263</v>
       </c>
       <c r="O15">
-        <v>1.617905822150718</v>
+        <v>1.7042521873841</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.714762040163464</v>
+        <v>3.69252261522513</v>
       </c>
       <c r="C16">
-        <v>0.8496883543668616</v>
+        <v>0.4708632740740768</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6722732509507665</v>
+        <v>0.04534974493653898</v>
       </c>
       <c r="F16">
-        <v>4.153066954309679</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007655450937470264</v>
+        <v>0.0007741919591198447</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.242531971871653</v>
       </c>
       <c r="J16">
-        <v>0.1263927839445316</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.02267556633366</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4630675354886478</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7481720081197949</v>
       </c>
       <c r="O16">
-        <v>1.525307874272954</v>
+        <v>1.630212276397344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.547697401512607</v>
+        <v>3.53868469423935</v>
       </c>
       <c r="C17">
-        <v>0.8116697065867697</v>
+        <v>0.4549046418843261</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.643499731457041</v>
+        <v>0.04465971318404094</v>
       </c>
       <c r="F17">
-        <v>3.986527397780463</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.000769182071554273</v>
+        <v>0.0007758772452141696</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2409465913611903</v>
       </c>
       <c r="J17">
-        <v>0.1218006889700405</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9766085737221317</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4441696038796437</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7484624156285378</v>
       </c>
       <c r="O17">
-        <v>1.4704571476327</v>
+        <v>1.586310739284443</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.452286580921452</v>
+        <v>3.450331093665227</v>
       </c>
       <c r="C18">
-        <v>0.7899525788270978</v>
+        <v>0.4457304360792307</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6270559402427267</v>
+        <v>0.04427286700540733</v>
       </c>
       <c r="F18">
-        <v>3.89205191072034</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007712788696608852</v>
+        <v>0.0007768531842511911</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2401418250782328</v>
       </c>
       <c r="J18">
-        <v>0.1192188393051836</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9502977431274928</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4333469680448871</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.7487486102978949</v>
       </c>
       <c r="O18">
-        <v>1.439576046914468</v>
+        <v>1.561593144662936</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.42009318388142</v>
+        <v>3.420437226070987</v>
       </c>
       <c r="C19">
-        <v>0.7826239477246872</v>
+        <v>0.4426249232541011</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.6215056799799044</v>
+        <v>0.04414358062184576</v>
       </c>
       <c r="F19">
-        <v>3.860280307249667</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007719897446904037</v>
+        <v>0.0007771847705936272</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2398873430119579</v>
       </c>
       <c r="J19">
-        <v>0.1183544535636116</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9414196285171812</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.429690405710744</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.7488656518041239</v>
       </c>
       <c r="O19">
-        <v>1.429230307129686</v>
+        <v>1.553313494329899</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.565409912272173</v>
+        <v>3.555047279415078</v>
       </c>
       <c r="C20">
-        <v>0.8157009794609849</v>
+        <v>0.4566029459293759</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.646551542371725</v>
+        <v>0.04473212139094507</v>
       </c>
       <c r="F20">
-        <v>4.004117582794464</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007687944237989916</v>
+        <v>0.0007756971635528576</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2411041780954726</v>
       </c>
       <c r="J20">
-        <v>0.122283276694418</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9814928779501031</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4461763971101647</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7484190909020043</v>
       </c>
       <c r="O20">
-        <v>1.476225903254601</v>
+        <v>1.590928373941836</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.062236467206333</v>
+        <v>4.00896006136071</v>
       </c>
       <c r="C21">
-        <v>0.9287383514360101</v>
+        <v>0.5036323402773064</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7320373159451492</v>
+        <v>0.04683191765352035</v>
       </c>
       <c r="F21">
-        <v>4.503828421468853</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007581099064470326</v>
+        <v>0.0007707767723287603</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2465024774558628</v>
       </c>
       <c r="J21">
-        <v>0.1362261863570211</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.118478527891867</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5021485513848347</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7483671564318257</v>
       </c>
       <c r="O21">
-        <v>1.642461091102348</v>
+        <v>1.723858610698244</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.394433145216681</v>
+        <v>4.307052306426556</v>
       </c>
       <c r="C22">
-        <v>1.004296038499973</v>
+        <v>0.5344364473076268</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7890690103833577</v>
+        <v>0.04830108803657929</v>
       </c>
       <c r="F22">
-        <v>4.84446190569372</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007511476598502099</v>
+        <v>0.0007676162182522391</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2510778720005149</v>
       </c>
       <c r="J22">
-        <v>0.1459717163394814</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.210059924845851</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5392110871114255</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7494707904267415</v>
       </c>
       <c r="O22">
-        <v>1.758188994623396</v>
+        <v>1.816031817463454</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.216372478076153</v>
+        <v>4.147809566863828</v>
       </c>
       <c r="C23">
-        <v>0.9637974635817557</v>
+        <v>0.5179882361387911</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7585122908923125</v>
+        <v>0.04750773125779872</v>
       </c>
       <c r="F23">
-        <v>4.66125065565447</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007548628563177161</v>
+        <v>0.0007692981970791711</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2485353443447984</v>
       </c>
       <c r="J23">
-        <v>0.1407069181137217</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.160972235586868</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5193828504295084</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7487738145450891</v>
       </c>
       <c r="O23">
-        <v>1.695714596953508</v>
+        <v>1.766325083433259</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.557400117549378</v>
+        <v>3.547649477719915</v>
       </c>
       <c r="C24">
-        <v>0.8138780076019714</v>
+        <v>0.4558351409951058</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6451715141775054</v>
+        <v>0.04469935500219435</v>
       </c>
       <c r="F24">
-        <v>3.996161128054467</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007689696609136013</v>
+        <v>0.0007757785565019199</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2410326018290156</v>
       </c>
       <c r="J24">
-        <v>0.1220649185753473</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9792841471861777</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4452689956399638</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7484383074466621</v>
       </c>
       <c r="O24">
-        <v>1.473615825897923</v>
+        <v>1.588839121345728</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.871999767650038</v>
+        <v>2.905108556958623</v>
       </c>
       <c r="C25">
-        <v>0.6577656149259496</v>
+        <v>0.3889635135741969</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5268762735661241</v>
+        <v>0.0420501896472576</v>
       </c>
       <c r="F25">
-        <v>3.327997200461056</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007843834046382669</v>
+        <v>0.0007830231260144144</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2369874534310483</v>
       </c>
       <c r="J25">
-        <v>0.1041844902846236</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7902357923338599</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3670885679026128</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7525936152531614</v>
       </c>
       <c r="O25">
-        <v>1.259093268487689</v>
+        <v>1.417512532809127</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.434721139815338</v>
+        <v>0.9992429780979819</v>
       </c>
       <c r="C2">
-        <v>0.339743232039794</v>
+        <v>0.1811929599846565</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04038949184004714</v>
+        <v>0.08941069587415384</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007885949426456741</v>
+        <v>0.002415944870811899</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2370330482086658</v>
+        <v>0.5666943818440977</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3107202565118143</v>
+        <v>0.2183729955876572</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.759164552839998</v>
+        <v>1.092475649779793</v>
       </c>
       <c r="O2">
-        <v>1.305990402562685</v>
+        <v>2.199927829652808</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.116982295601304</v>
+        <v>0.9044574867328379</v>
       </c>
       <c r="C3">
-        <v>0.3063397771826288</v>
+        <v>0.1701148365688567</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03942773943061972</v>
+        <v>0.08987622655237715</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007925279383314533</v>
+        <v>0.002418578993068641</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.238741094441874</v>
+        <v>0.5730978903180102</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2731189984189797</v>
+        <v>0.2090267239320553</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7656376131976046</v>
+        <v>1.097425316707159</v>
       </c>
       <c r="O3">
-        <v>1.238313073695878</v>
+        <v>2.205771986625706</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922214172605464</v>
+        <v>0.8463364081106306</v>
       </c>
       <c r="C4">
-        <v>0.2857903989284409</v>
+        <v>0.1632587100100835</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03891268834613371</v>
+        <v>0.09020801821514013</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007950228789411334</v>
+        <v>0.002420283332495748</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2405527249357604</v>
+        <v>0.5774106140121127</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2502834756278673</v>
+        <v>0.2033976418929626</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7705562358646532</v>
+        <v>1.100909681150497</v>
       </c>
       <c r="O4">
-        <v>1.200283185878746</v>
+        <v>2.210976707920167</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.842900971943521</v>
+        <v>0.8226726384100971</v>
       </c>
       <c r="C5">
-        <v>0.2774042770972471</v>
+        <v>0.1604513270380608</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0387210349805347</v>
+        <v>0.0903547884998428</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007960600881139648</v>
+        <v>0.002420999800698593</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2414737296246692</v>
+        <v>0.5792637569943047</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2410350897680331</v>
+        <v>0.2011313865170337</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7727907105340535</v>
+        <v>1.102441746076913</v>
       </c>
       <c r="O5">
-        <v>1.185619626286623</v>
+        <v>2.213503554030865</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829733772068948</v>
+        <v>0.8187446034462482</v>
       </c>
       <c r="C6">
-        <v>0.2760109784511968</v>
+        <v>0.1599843550161211</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03869029126003909</v>
+        <v>0.09037985814584104</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007962335645196526</v>
+        <v>0.002421120096471237</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2416374419511165</v>
+        <v>0.5795772449274139</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2395026909430413</v>
+        <v>0.2007567486563318</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7731754341404056</v>
+        <v>1.102702924235615</v>
       </c>
       <c r="O6">
-        <v>1.183233641012393</v>
+        <v>2.213947632276998</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.921144331010993</v>
+        <v>0.8460171830114405</v>
       </c>
       <c r="C7">
-        <v>0.285677352404349</v>
+        <v>0.1632209029413048</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0389100307710919</v>
+        <v>0.09020995078493499</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007950367835834146</v>
+        <v>0.002420292906208659</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2405644176675352</v>
+        <v>0.5774352189275014</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2501585245155269</v>
+        <v>0.203366966342287</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7705854484990695</v>
+        <v>1.100929888726959</v>
       </c>
       <c r="O7">
-        <v>1.200082118648268</v>
+        <v>2.211009143221574</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.325081571803253</v>
+        <v>0.966545722494061</v>
       </c>
       <c r="C8">
-        <v>0.328232573593084</v>
+        <v>0.1773845421386966</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0400417584491457</v>
+        <v>0.08956167720910457</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007899346488004005</v>
+        <v>0.002416835103094652</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2374580453568313</v>
+        <v>0.5688231757028426</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2976993353313304</v>
+        <v>0.2151277111049552</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.761195983039201</v>
+        <v>1.094089999098429</v>
       </c>
       <c r="O8">
-        <v>1.281891503372833</v>
+        <v>2.201607063950888</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.121037113784155</v>
+        <v>1.203462094713529</v>
       </c>
       <c r="C9">
-        <v>0.4114785686583389</v>
+        <v>0.2047245902438988</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04289515898715557</v>
+        <v>0.08865478370805135</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007805470663595086</v>
+        <v>0.002410741522460305</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2378510936339637</v>
+        <v>0.554962981134107</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3932176234441158</v>
+        <v>0.2390573153380871</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7506245635210291</v>
+        <v>1.084201889371883</v>
       </c>
       <c r="O9">
-        <v>1.472781474389279</v>
+        <v>2.196023508471228</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.7100951012564</v>
+        <v>1.377808985267734</v>
       </c>
       <c r="C10">
-        <v>0.47268499405547</v>
+        <v>0.224540760417284</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04542986751589417</v>
+        <v>0.08821035337419936</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007740005395952976</v>
+        <v>0.002406679321737776</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2427276951535973</v>
+        <v>0.5466333523415656</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4652304914884269</v>
+        <v>0.2571654938276851</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7481552688233677</v>
+        <v>1.07907626834843</v>
       </c>
       <c r="O10">
-        <v>1.635295817179582</v>
+        <v>2.199800887124383</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.979468077544709</v>
+        <v>1.457174637251399</v>
       </c>
       <c r="C11">
-        <v>0.5005813680160145</v>
+        <v>0.2334958465907562</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04669032957696828</v>
+        <v>0.08805629602954568</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007710923305085899</v>
+        <v>0.002404920496196962</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2460931494044196</v>
+        <v>0.543248076673116</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4984945978355739</v>
+        <v>0.2655176706438311</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.748305455750895</v>
+        <v>1.077207089805412</v>
       </c>
       <c r="O11">
-        <v>1.714945113926433</v>
+        <v>2.203239909998246</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.081716202490213</v>
+        <v>1.487234849216293</v>
       </c>
       <c r="C12">
-        <v>0.5111563992842605</v>
+        <v>0.2368782346943306</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04718415794570241</v>
+        <v>0.08800487232127807</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.000770000572441587</v>
+        <v>0.002404267218942185</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2475460520700956</v>
+        <v>0.5420243791066817</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5111727851425911</v>
+        <v>0.2686968522414332</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7485565176107087</v>
+        <v>1.076565627742738</v>
       </c>
       <c r="O12">
-        <v>1.746008089022894</v>
+        <v>2.204790315628799</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.059683785173831</v>
+        <v>1.480760597012363</v>
       </c>
       <c r="C13">
-        <v>0.5088783140988085</v>
+        <v>0.2361501668977439</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04707705067120749</v>
+        <v>0.08801563988771832</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007702352875204648</v>
+        <v>0.002404407347672451</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2472249798406914</v>
+        <v>0.5422853319564638</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5084385197815209</v>
+        <v>0.2680114310385875</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7484936259720598</v>
+        <v>1.076700829251024</v>
       </c>
       <c r="O13">
-        <v>1.739276707838229</v>
+        <v>2.204445361743865</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.987874992904324</v>
+        <v>1.459647594964395</v>
       </c>
       <c r="C14">
-        <v>0.501451134182588</v>
+        <v>0.2337742931936759</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04673061968216885</v>
+        <v>0.0880519268202562</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007710023233310731</v>
+        <v>0.002404866495365616</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2462090226767515</v>
+        <v>0.5431462344035012</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4995359458057038</v>
+        <v>0.2657788958319287</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7483221528230217</v>
+        <v>1.077152987321625</v>
       </c>
       <c r="O14">
-        <v>1.717482143267318</v>
+        <v>2.203362486110109</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.943922848360785</v>
+        <v>1.446716024940542</v>
       </c>
       <c r="C15">
-        <v>0.4969033542595866</v>
+        <v>0.2323178628266191</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0465206049451421</v>
+        <v>0.08807505394488579</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007714733781412099</v>
+        <v>0.002405149395747318</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2456103806787056</v>
+        <v>0.5436811501096912</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4940937973792501</v>
+        <v>0.2644135355980524</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7482427511291263</v>
+        <v>1.077438584227963</v>
       </c>
       <c r="O15">
-        <v>1.7042521873841</v>
+        <v>2.202731526845952</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.69252261522513</v>
+        <v>1.372623205699256</v>
       </c>
       <c r="C16">
-        <v>0.4708632740740768</v>
+        <v>0.2239543149925112</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04534974493653898</v>
+        <v>0.08822138921400224</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007741919591198447</v>
+        <v>0.002406796052641217</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.242531971871653</v>
+        <v>0.546862728724026</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4630675354886478</v>
+        <v>0.2566219587357637</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7481720081197949</v>
+        <v>1.079207717108133</v>
       </c>
       <c r="O16">
-        <v>1.630212276397344</v>
+        <v>2.19961082241673</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.53868469423935</v>
+        <v>1.327182407739429</v>
       </c>
       <c r="C17">
-        <v>0.4549046418843261</v>
+        <v>0.2188082182093183</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04465971318404094</v>
+        <v>0.08832348162729708</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007758772452141696</v>
+        <v>0.002407828999324967</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2409465913611903</v>
+        <v>0.5489180834249261</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4441696038796437</v>
+        <v>0.2518713811430615</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7484624156285378</v>
+        <v>1.08041136951735</v>
       </c>
       <c r="O17">
-        <v>1.586310739284443</v>
+        <v>2.198137570014808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.450331093665227</v>
+        <v>1.301051279648163</v>
       </c>
       <c r="C18">
-        <v>0.4457304360792307</v>
+        <v>0.2158427395233389</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04427286700540733</v>
+        <v>0.08838673168881606</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007768531842511911</v>
+        <v>0.002408431511859671</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2401418250782328</v>
+        <v>0.5501382784223772</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4333469680448871</v>
+        <v>0.249149774169112</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7487486102978949</v>
+        <v>1.081147219181048</v>
       </c>
       <c r="O18">
-        <v>1.561593144662936</v>
+        <v>2.197452111012353</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.420437226070987</v>
+        <v>1.292204675268295</v>
       </c>
       <c r="C19">
-        <v>0.4426249232541011</v>
+        <v>0.2148377261818553</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04414358062184576</v>
+        <v>0.08840892510757037</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007771847705936272</v>
+        <v>0.002408636955028332</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2398873430119579</v>
+        <v>0.5505579390353645</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.429690405710744</v>
+        <v>0.248230142596654</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7488656518041239</v>
+        <v>1.081403848047614</v>
       </c>
       <c r="O19">
-        <v>1.553313494329899</v>
+        <v>2.197247814642253</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.555047279415078</v>
+        <v>1.332019130328547</v>
       </c>
       <c r="C20">
-        <v>0.4566029459293759</v>
+        <v>0.2193566077225455</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04473212139094507</v>
+        <v>0.08831214499318207</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007756971635528576</v>
+        <v>0.002407718172430406</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2411041780954726</v>
+        <v>0.5486953524929383</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4461763971101647</v>
+        <v>0.2523759712188678</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7484190909020043</v>
+        <v>1.080278733475794</v>
       </c>
       <c r="O20">
-        <v>1.590928373941836</v>
+        <v>2.198277637445671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.00896006136071</v>
+        <v>1.465848841406</v>
       </c>
       <c r="C21">
-        <v>0.5036323402773064</v>
+        <v>0.2344723825860626</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04683191765352035</v>
+        <v>0.08804108084879481</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007707767723287603</v>
+        <v>0.002404731286985283</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2465024774558628</v>
+        <v>0.5428917848649419</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5021485513848347</v>
+        <v>0.2664342013968621</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7483671564318257</v>
+        <v>1.077018377847878</v>
       </c>
       <c r="O21">
-        <v>1.723858610698244</v>
+        <v>2.203673813465826</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.307052306426556</v>
+        <v>1.553349444657783</v>
       </c>
       <c r="C22">
-        <v>0.5344364473076268</v>
+        <v>0.2443005765226474</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04830108803657929</v>
+        <v>0.08790422540030107</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007676162182522391</v>
+        <v>0.00240285348500561</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2510778720005149</v>
+        <v>0.5394383132673681</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5392110871114255</v>
+        <v>0.2757175763149178</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7494707904267415</v>
+        <v>1.07527424992297</v>
       </c>
       <c r="O22">
-        <v>1.816031817463454</v>
+        <v>2.208647092347491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.147809566863828</v>
+        <v>1.506646056237173</v>
       </c>
       <c r="C23">
-        <v>0.5179882361387911</v>
+        <v>0.2390597917822959</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04750773125779872</v>
+        <v>0.0879735817423537</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007692981970791711</v>
+        <v>0.002403848924169439</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2485353443447984</v>
+        <v>0.5412503825466821</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5193828504295084</v>
+        <v>0.2707541573640242</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7487738145450891</v>
+        <v>1.076169788957344</v>
       </c>
       <c r="O23">
-        <v>1.766325083433259</v>
+        <v>2.205860171083543</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.547649477719915</v>
+        <v>1.329832468502502</v>
       </c>
       <c r="C24">
-        <v>0.4558351409951058</v>
+        <v>0.2191087023642808</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04469935500219435</v>
+        <v>0.0883172560946619</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007757785565019199</v>
+        <v>0.0024077682503356</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2410326018290156</v>
+        <v>0.5487959290949718</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4452689956399638</v>
+        <v>0.2521478162507123</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7484383074466621</v>
+        <v>1.080338561615093</v>
       </c>
       <c r="O24">
-        <v>1.588839121345728</v>
+        <v>2.198213809842969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.905108556958623</v>
+        <v>1.139315879153003</v>
       </c>
       <c r="C25">
-        <v>0.3889635135741969</v>
+        <v>0.1973755015560243</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0420501896472576</v>
+        <v>0.08886114153467339</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007830231260144144</v>
+        <v>0.002412316863941194</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2369874534310483</v>
+        <v>0.5583875868166039</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3670885679026128</v>
+        <v>0.2324910620599212</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7525936152531614</v>
+        <v>1.08650054285652</v>
       </c>
       <c r="O25">
-        <v>1.417512532809127</v>
+        <v>2.196153404356011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9992429780979819</v>
+        <v>2.434721139815508</v>
       </c>
       <c r="C2">
-        <v>0.1811929599846565</v>
+        <v>0.3397432320395239</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08941069587415384</v>
+        <v>0.04038949184005958</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002415944870811899</v>
+        <v>0.0007885949426238454</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5666943818440977</v>
+        <v>0.2370330482086764</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2183729955876572</v>
+        <v>0.3107202565117859</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.092475649779793</v>
+        <v>0.7591645528399837</v>
       </c>
       <c r="O2">
-        <v>2.199927829652808</v>
+        <v>1.305990402562628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9044574867328379</v>
+        <v>2.116982295601076</v>
       </c>
       <c r="C3">
-        <v>0.1701148365688567</v>
+        <v>0.3063397771824015</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08987622655237715</v>
+        <v>0.03942773943061972</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002418578993068641</v>
+        <v>0.0007925279384291725</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5730978903180102</v>
+        <v>0.2387410944418953</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2090267239320553</v>
+        <v>0.2731189984188944</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.097425316707159</v>
+        <v>0.7656376131976117</v>
       </c>
       <c r="O3">
-        <v>2.205771986625706</v>
+        <v>1.238313073695821</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8463364081106306</v>
+        <v>1.922214172605464</v>
       </c>
       <c r="C4">
-        <v>0.1632587100100835</v>
+        <v>0.2857903989287394</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09020801821514013</v>
+        <v>0.03891268834613548</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002420283332495748</v>
+        <v>0.0007950228789410223</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5774106140121127</v>
+        <v>0.240552724935764</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2033976418929626</v>
+        <v>0.2502834756279242</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.100909681150497</v>
+        <v>0.7705562358645963</v>
       </c>
       <c r="O4">
-        <v>2.210976707920167</v>
+        <v>1.200283185878732</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8226726384100971</v>
+        <v>1.842900971943578</v>
       </c>
       <c r="C5">
-        <v>0.1604513270380608</v>
+        <v>0.2774042770974319</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0903547884998428</v>
+        <v>0.03872103498055068</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002420999800698593</v>
+        <v>0.0007960600880737826</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5792637569943047</v>
+        <v>0.2414737296246656</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2011313865170337</v>
+        <v>0.2410350897680047</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.102441746076913</v>
+        <v>0.7727907105340961</v>
       </c>
       <c r="O5">
-        <v>2.213503554030865</v>
+        <v>1.185619626286595</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8187446034462482</v>
+        <v>1.829733772068806</v>
       </c>
       <c r="C6">
-        <v>0.1599843550161211</v>
+        <v>0.2760109784510263</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09037985814584104</v>
+        <v>0.03869029126003554</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002421120096471237</v>
+        <v>0.0007962335645187908</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5795772449274139</v>
+        <v>0.24163744195112</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2007567486563318</v>
+        <v>0.2395026909430271</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.102702924235615</v>
+        <v>0.7731754341403985</v>
       </c>
       <c r="O6">
-        <v>2.213947632276998</v>
+        <v>1.183233641012421</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8460171830114405</v>
+        <v>1.921144331010964</v>
       </c>
       <c r="C7">
-        <v>0.1632209029413048</v>
+        <v>0.2856773524043632</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09020995078493499</v>
+        <v>0.03891003077107591</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002420292906208659</v>
+        <v>0.0007950367835250723</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5774352189275014</v>
+        <v>0.2405644176675352</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.203366966342287</v>
+        <v>0.2501585245154558</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.100929888726959</v>
+        <v>0.7705854484991121</v>
       </c>
       <c r="O7">
-        <v>2.211009143221574</v>
+        <v>1.200082118648268</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.966545722494061</v>
+        <v>2.325081571803253</v>
       </c>
       <c r="C8">
-        <v>0.1773845421386966</v>
+        <v>0.3282325735930414</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08956167720910457</v>
+        <v>0.04004175844915814</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002416835103094652</v>
+        <v>0.0007899346488201317</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5688231757028426</v>
+        <v>0.2374580453568278</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2151277111049552</v>
+        <v>0.2976993353313873</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.094089999098429</v>
+        <v>0.7611959830392507</v>
       </c>
       <c r="O8">
-        <v>2.201607063950888</v>
+        <v>1.281891503372833</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.203462094713529</v>
+        <v>3.121037113784155</v>
       </c>
       <c r="C9">
-        <v>0.2047245902438988</v>
+        <v>0.4114785686581115</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08865478370805135</v>
+        <v>0.04289515898716445</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002410741522460305</v>
+        <v>0.000780547066330011</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.554962981134107</v>
+        <v>0.2378510936339673</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2390573153380871</v>
+        <v>0.3932176234441727</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.084201889371883</v>
+        <v>0.7506245635210149</v>
       </c>
       <c r="O9">
-        <v>2.196023508471228</v>
+        <v>1.472781474389279</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.377808985267734</v>
+        <v>3.710095101256286</v>
       </c>
       <c r="C10">
-        <v>0.224540760417284</v>
+        <v>0.4726849940550437</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08821035337419936</v>
+        <v>0.04542986751589417</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002406679321737776</v>
+        <v>0.0007740005395950982</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5466333523415656</v>
+        <v>0.2427276951536044</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2571654938276851</v>
+        <v>0.4652304914884553</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.07907626834843</v>
+        <v>0.7481552688233535</v>
       </c>
       <c r="O10">
-        <v>2.199800887124383</v>
+        <v>1.635295817179554</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.457174637251399</v>
+        <v>3.97946807754488</v>
       </c>
       <c r="C11">
-        <v>0.2334958465907562</v>
+        <v>0.5005813680164692</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08805629602954568</v>
+        <v>0.04669032957695052</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002404920496196962</v>
+        <v>0.000771092330505822</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.543248076673116</v>
+        <v>0.2460931494044161</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2655176706438311</v>
+        <v>0.4984945978355029</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.077207089805412</v>
+        <v>0.7483054557509092</v>
       </c>
       <c r="O11">
-        <v>2.203239909998246</v>
+        <v>1.714945113926404</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.487234849216293</v>
+        <v>4.081716202490213</v>
       </c>
       <c r="C12">
-        <v>0.2368782346943306</v>
+        <v>0.5111563992840331</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08800487232127807</v>
+        <v>0.04718415794568642</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002404267218942185</v>
+        <v>0.0007700005724411654</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5420243791066817</v>
+        <v>0.247546052070124</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2686968522414332</v>
+        <v>0.5111727851424774</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.076565627742738</v>
+        <v>0.7485565176107514</v>
       </c>
       <c r="O12">
-        <v>2.204790315628799</v>
+        <v>1.746008089022894</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.480760597012363</v>
+        <v>4.059683785174002</v>
       </c>
       <c r="C13">
-        <v>0.2361501668977439</v>
+        <v>0.5088783140990358</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08801563988771832</v>
+        <v>0.0470770506711915</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002404407347672451</v>
+        <v>0.0007702352875725836</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5422853319564638</v>
+        <v>0.2472249798406736</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2680114310385875</v>
+        <v>0.5084385197814925</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.076700829251024</v>
+        <v>0.7484936259720598</v>
       </c>
       <c r="O13">
-        <v>2.204445361743865</v>
+        <v>1.739276707838258</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.459647594964395</v>
+        <v>3.98787499290421</v>
       </c>
       <c r="C14">
-        <v>0.2337742931936759</v>
+        <v>0.5014511341824459</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0880519268202562</v>
+        <v>0.04673061968216707</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002404866495365616</v>
+        <v>0.0007710023233026156</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5431462344035012</v>
+        <v>0.2462090226767408</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2657788958319287</v>
+        <v>0.499535945805718</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.077152987321625</v>
+        <v>0.7483221528230217</v>
       </c>
       <c r="O14">
-        <v>2.203362486110109</v>
+        <v>1.717482143267347</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.446716024940542</v>
+        <v>3.943922848360728</v>
       </c>
       <c r="C15">
-        <v>0.2323178628266191</v>
+        <v>0.4969033542593593</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08807505394488579</v>
+        <v>0.04652060494515098</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002405149395747318</v>
+        <v>0.0007714733781143401</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5436811501096912</v>
+        <v>0.245610380678702</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2644135355980524</v>
+        <v>0.494093797379179</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.077438584227963</v>
+        <v>0.7482427511291263</v>
       </c>
       <c r="O15">
-        <v>2.202731526845952</v>
+        <v>1.704252187384128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.372623205699256</v>
+        <v>3.692522615225016</v>
       </c>
       <c r="C16">
-        <v>0.2239543149925112</v>
+        <v>0.4708632740745884</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08822138921400224</v>
+        <v>0.04534974493653721</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002406796052641217</v>
+        <v>0.0007741919591441909</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.546862728724026</v>
+        <v>0.2425319718716388</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2566219587357637</v>
+        <v>0.4630675354887046</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.079207717108133</v>
+        <v>0.7481720081197807</v>
       </c>
       <c r="O16">
-        <v>2.19961082241673</v>
+        <v>1.630212276397373</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.327182407739429</v>
+        <v>3.53868469423935</v>
       </c>
       <c r="C17">
-        <v>0.2188082182093183</v>
+        <v>0.4549046418844398</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08832348162729708</v>
+        <v>0.04465971318403739</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002407828999324967</v>
+        <v>0.0007758772452140621</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5489180834249261</v>
+        <v>0.240946591361201</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2518713811430615</v>
+        <v>0.4441696038796152</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.08041136951735</v>
+        <v>0.7484624156285236</v>
       </c>
       <c r="O17">
-        <v>2.198137570014808</v>
+        <v>1.5863107392845</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.301051279648163</v>
+        <v>3.450331093665113</v>
       </c>
       <c r="C18">
-        <v>0.2158427395233389</v>
+        <v>0.4457304360790033</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08838673168881606</v>
+        <v>0.04427286700542155</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002408431511859671</v>
+        <v>0.0007768531842504934</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5501382784223772</v>
+        <v>0.2401418250782363</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.249149774169112</v>
+        <v>0.4333469680447308</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.081147219181048</v>
+        <v>0.7487486102978949</v>
       </c>
       <c r="O18">
-        <v>2.197452111012353</v>
+        <v>1.561593144662879</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.292204675268295</v>
+        <v>3.420437226070987</v>
       </c>
       <c r="C19">
-        <v>0.2148377261818553</v>
+        <v>0.4426249232541011</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08840892510757037</v>
+        <v>0.04414358062184398</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002408636955028332</v>
+        <v>0.0007771847705929617</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5505579390353645</v>
+        <v>0.2398873430119721</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.248230142596654</v>
+        <v>0.4296904057107156</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.081403848047614</v>
+        <v>0.7488656518040955</v>
       </c>
       <c r="O19">
-        <v>2.197247814642253</v>
+        <v>1.553313494329956</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.332019130328547</v>
+        <v>3.555047279415078</v>
       </c>
       <c r="C20">
-        <v>0.2193566077225455</v>
+        <v>0.4566029459293759</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08831214499318207</v>
+        <v>0.04473212139092908</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002407718172430406</v>
+        <v>0.000775697163552469</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5486953524929383</v>
+        <v>0.2411041780954726</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2523759712188678</v>
+        <v>0.4461763971100794</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.080278733475794</v>
+        <v>0.7484190909019901</v>
       </c>
       <c r="O20">
-        <v>2.198277637445671</v>
+        <v>1.590928373941836</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.465848841406</v>
+        <v>4.008960061360597</v>
       </c>
       <c r="C21">
-        <v>0.2344723825860626</v>
+        <v>0.5036323402773917</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08804108084879481</v>
+        <v>0.04683191765348838</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002404731286985283</v>
+        <v>0.0007707767723823658</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5428917848649419</v>
+        <v>0.2465024774558593</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2664342013968621</v>
+        <v>0.5021485513848063</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.077018377847878</v>
+        <v>0.7483671564318541</v>
       </c>
       <c r="O21">
-        <v>2.203673813465826</v>
+        <v>1.723858610698215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.553349444657783</v>
+        <v>4.307052306426499</v>
       </c>
       <c r="C22">
-        <v>0.2443005765226474</v>
+        <v>0.5344364473076268</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08790422540030107</v>
+        <v>0.04830108803657751</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.00240285348500561</v>
+        <v>0.0007676162181952537</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5394383132673681</v>
+        <v>0.2510778720005149</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2757175763149178</v>
+        <v>0.5392110871112408</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.07527424992297</v>
+        <v>0.7494707904267415</v>
       </c>
       <c r="O22">
-        <v>2.208647092347491</v>
+        <v>1.816031817463511</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.506646056237173</v>
+        <v>4.147809566863998</v>
       </c>
       <c r="C23">
-        <v>0.2390597917822959</v>
+        <v>0.51798823613899</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0879735817423537</v>
+        <v>0.04750773125778274</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002403848924169439</v>
+        <v>0.0007692981970524702</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5412503825466821</v>
+        <v>0.2485353443447913</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2707541573640242</v>
+        <v>0.51938285042948</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.076169788957344</v>
+        <v>0.7487738145450749</v>
       </c>
       <c r="O23">
-        <v>2.205860171083543</v>
+        <v>1.76632508343323</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.329832468502502</v>
+        <v>3.547649477719858</v>
       </c>
       <c r="C24">
-        <v>0.2191087023642808</v>
+        <v>0.4558351409947932</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0883172560946619</v>
+        <v>0.04469935500220501</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0024077682503356</v>
+        <v>0.0007757785564482931</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5487959290949718</v>
+        <v>0.2410326018290263</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2521478162507123</v>
+        <v>0.4452689956398928</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.080338561615093</v>
+        <v>0.7484383074466479</v>
       </c>
       <c r="O24">
-        <v>2.198213809842969</v>
+        <v>1.5888391213457</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.139315879153003</v>
+        <v>2.905108556958453</v>
       </c>
       <c r="C25">
-        <v>0.1973755015560243</v>
+        <v>0.3889635135743674</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08886114153467339</v>
+        <v>0.04205018964725404</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002412316863941194</v>
+        <v>0.000783023125984025</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5583875868166039</v>
+        <v>0.2369874534310625</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2324910620599212</v>
+        <v>0.3670885679027123</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.08650054285652</v>
+        <v>0.752593615253204</v>
       </c>
       <c r="O25">
-        <v>2.196153404356011</v>
+        <v>1.41751253280907</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.434721139815508</v>
+        <v>1.031749636613483</v>
       </c>
       <c r="C2">
-        <v>0.3397432320395239</v>
+        <v>0.2047890331760414</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04038949184005958</v>
+        <v>1.144958460425812</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.864942396623789</v>
       </c>
       <c r="G2">
-        <v>0.0007885949426238454</v>
+        <v>0.178335159762316</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001706195784778597</v>
       </c>
       <c r="I2">
-        <v>0.2370330482086764</v>
+        <v>0.0004450040603716232</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.213847080873812</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1911290963958852</v>
       </c>
       <c r="L2">
-        <v>0.3107202565117859</v>
+        <v>0.03610232216302123</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.150995470428398</v>
       </c>
       <c r="N2">
-        <v>0.7591645528399837</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.305990402562628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7738681205984221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.116982295601076</v>
+        <v>0.9012328376721541</v>
       </c>
       <c r="C3">
-        <v>0.3063397771824015</v>
+        <v>0.1846188945176408</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03942773943061972</v>
+        <v>1.006663103347591</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.694307149617728</v>
       </c>
       <c r="G3">
-        <v>0.0007925279384291725</v>
+        <v>0.1823217925499812</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.018325858215263E-05</v>
       </c>
       <c r="I3">
-        <v>0.2387410944418953</v>
+        <v>0.0005417681639809935</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2201579009921382</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2007251264764207</v>
       </c>
       <c r="L3">
-        <v>0.2731189984188944</v>
+        <v>0.03335916134564609</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.010152473882528</v>
       </c>
       <c r="N3">
-        <v>0.7656376131976117</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.238313073695821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7952748152968923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.922214172605464</v>
+        <v>0.8207674693715319</v>
       </c>
       <c r="C4">
-        <v>0.2857903989287394</v>
+        <v>0.1723862958649391</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03891268834613548</v>
+        <v>0.9219250603217688</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.590230628731447</v>
       </c>
       <c r="G4">
-        <v>0.0007950228789410223</v>
+        <v>0.1851178221132628</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0001832601106135368</v>
       </c>
       <c r="I4">
-        <v>0.240552724935764</v>
+        <v>0.0007304316154592705</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2242710749309929</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2068917413831404</v>
       </c>
       <c r="L4">
-        <v>0.2502834756279242</v>
+        <v>0.03165890496425217</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9236356309593532</v>
       </c>
       <c r="N4">
-        <v>0.7705562358645963</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.200283185878732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8096499130804347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.842900971943578</v>
+        <v>0.7875473970504743</v>
       </c>
       <c r="C5">
-        <v>0.2774042770974319</v>
+        <v>0.1678677495825553</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03872103498055068</v>
+        <v>0.8878194530854699</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.547475755725742</v>
       </c>
       <c r="G5">
-        <v>0.0007960600880737826</v>
+        <v>0.1860948990177462</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0003187098603216754</v>
       </c>
       <c r="I5">
-        <v>0.2414737296246656</v>
+        <v>0.0009065394058396237</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2258700479125366</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2093191087845589</v>
       </c>
       <c r="L5">
-        <v>0.2410350897680047</v>
+        <v>0.03094292666988263</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.888768275272497</v>
       </c>
       <c r="N5">
-        <v>0.7727907105340961</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.185619626286595</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8150003231070713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.829733772068806</v>
+        <v>0.7816031289711134</v>
       </c>
       <c r="C6">
-        <v>0.2760109784510263</v>
+        <v>0.1676485987417919</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03869029126003554</v>
+        <v>0.882637938193028</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.539775785563606</v>
       </c>
       <c r="G6">
-        <v>0.0007962335645187908</v>
+        <v>0.1859619070765355</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0003452614657157849</v>
       </c>
       <c r="I6">
-        <v>0.24163744195112</v>
+        <v>0.001028543992950937</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2259736842778644</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2095406276374367</v>
       </c>
       <c r="L6">
-        <v>0.2395026909430271</v>
+        <v>0.03080138008661404</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8834724650477881</v>
       </c>
       <c r="N6">
-        <v>0.7731754341403985</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.183233641012421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8149234311121134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.921144331010964</v>
+        <v>0.8191610935985238</v>
       </c>
       <c r="C7">
-        <v>0.2856773524043632</v>
+        <v>0.1737734919661733</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03891003077107591</v>
+        <v>0.9227779680213786</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.587988658088292</v>
       </c>
       <c r="G7">
-        <v>0.0007950367835250723</v>
+        <v>0.1843126917508791</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0001853047860431722</v>
       </c>
       <c r="I7">
-        <v>0.2405644176675352</v>
+        <v>0.00096610548424092</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2238428849386835</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2064205616482928</v>
       </c>
       <c r="L7">
-        <v>0.2501585245154558</v>
+        <v>0.03158806712252371</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9245218983945733</v>
       </c>
       <c r="N7">
-        <v>0.7705854484991121</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.200082118648268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8070445124905916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.325081571803253</v>
+        <v>0.9852668715308255</v>
       </c>
       <c r="C8">
-        <v>0.3282325735930414</v>
+        <v>0.1997383736367624</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04004175844915814</v>
+        <v>1.098978954172082</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.803746661334515</v>
       </c>
       <c r="G8">
-        <v>0.0007899346488201317</v>
+        <v>0.1785638344610483</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.643047259695777E-05</v>
       </c>
       <c r="I8">
-        <v>0.2374580453568278</v>
+        <v>0.0007316556000311891</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2153878485776204</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1937309397270202</v>
       </c>
       <c r="L8">
-        <v>0.2976993353313873</v>
+        <v>0.03507764413171355</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.104252728210952</v>
       </c>
       <c r="N8">
-        <v>0.7611959830392507</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.281891503372833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.7774898739607679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.121037113784155</v>
+        <v>1.310611302504185</v>
       </c>
       <c r="C9">
-        <v>0.4114785686581115</v>
+        <v>0.2493634490826224</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04289515898716445</v>
+        <v>1.444033191423244</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>2.236277270253481</v>
       </c>
       <c r="G9">
-        <v>0.000780547066330011</v>
+        <v>0.1716836904152501</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002126862336810476</v>
       </c>
       <c r="I9">
-        <v>0.2378510936339673</v>
+        <v>0.001020772374686452</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2015629746951717</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.171990380029114</v>
       </c>
       <c r="L9">
-        <v>0.3932176234441727</v>
+        <v>0.04194272900959284</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.454208254114661</v>
       </c>
       <c r="N9">
-        <v>0.7506245635210149</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.472781474389279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.7345717609178166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.710095101256286</v>
+        <v>1.548010930353456</v>
       </c>
       <c r="C10">
-        <v>0.4726849940550437</v>
+        <v>0.2867511755422214</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04542986751589417</v>
+        <v>1.651570923865663</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.50694706005838</v>
       </c>
       <c r="G10">
-        <v>0.0007740005395950982</v>
+        <v>0.1661384157448325</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005202177081580217</v>
       </c>
       <c r="I10">
-        <v>0.2427276951536044</v>
+        <v>0.002118902929804101</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1914376323413904</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.156560510240487</v>
       </c>
       <c r="L10">
-        <v>0.4652304914884553</v>
+        <v>0.0453732771564308</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.711485355918654</v>
       </c>
       <c r="N10">
-        <v>0.7481552688233535</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.635295817179554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.7020321316431506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.97946807754488</v>
+        <v>1.656365667388513</v>
       </c>
       <c r="C11">
-        <v>0.5005813680164692</v>
+        <v>0.2993084520533529</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04669032957695052</v>
+        <v>1.349062817568523</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.195654795297799</v>
       </c>
       <c r="G11">
-        <v>0.000771092330505822</v>
+        <v>0.144881633509975</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02316781501154352</v>
       </c>
       <c r="I11">
-        <v>0.2460931494044161</v>
+        <v>0.003001390402848969</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1775152363054175</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1433431446951712</v>
       </c>
       <c r="L11">
-        <v>0.4984945978355029</v>
+        <v>0.04099008680439553</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.822814128736695</v>
       </c>
       <c r="N11">
-        <v>0.7483054557509092</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.714945113926404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.6279437938063381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.081716202490213</v>
+        <v>1.699816408955286</v>
       </c>
       <c r="C12">
-        <v>0.5111563992840331</v>
+        <v>0.2994893248506827</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04718415794568642</v>
+        <v>1.077299536099702</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.897385017574393</v>
       </c>
       <c r="G12">
-        <v>0.0007700005724411654</v>
+        <v>0.1300465692959811</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06106678368836782</v>
       </c>
       <c r="I12">
-        <v>0.247546052070124</v>
+        <v>0.003086414298560491</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1687840145884323</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1366901078146787</v>
       </c>
       <c r="L12">
-        <v>0.5111727851424774</v>
+        <v>0.04725156048181667</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.86001711226055</v>
       </c>
       <c r="N12">
-        <v>0.7485565176107514</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.746008089022894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.5782369098364981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.059683785174002</v>
+        <v>1.69359393723343</v>
       </c>
       <c r="C13">
-        <v>0.5088783140990358</v>
+        <v>0.292479645250566</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0470770506711915</v>
+        <v>0.8170074477422986</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.590760441170659</v>
       </c>
       <c r="G13">
-        <v>0.0007702352875725836</v>
+        <v>0.1179248387287473</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1158841598947191</v>
       </c>
       <c r="I13">
-        <v>0.2472249798406736</v>
+        <v>0.002885611815082179</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1627726130699791</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1338158120771089</v>
       </c>
       <c r="L13">
-        <v>0.5084385197814925</v>
+        <v>0.06170422955996102</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.844155095533324</v>
       </c>
       <c r="N13">
-        <v>0.7484936259720598</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.739276707838258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.5398991187769866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.98787499290421</v>
+        <v>1.66635545822578</v>
       </c>
       <c r="C14">
-        <v>0.5014511341824459</v>
+        <v>0.2848066182234703</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04673061968216707</v>
+        <v>0.6457803124404933</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.376500384190138</v>
       </c>
       <c r="G14">
-        <v>0.0007710023233026156</v>
+        <v>0.1106686881711774</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1645747753074858</v>
       </c>
       <c r="I14">
-        <v>0.2462090226767408</v>
+        <v>0.002703615247964919</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1597595044605811</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1335096635003632</v>
       </c>
       <c r="L14">
-        <v>0.499535945805718</v>
+        <v>0.07676715560206304</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.809471250345183</v>
       </c>
       <c r="N14">
-        <v>0.7483221528230217</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.717482143267347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.5181344873956135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.943922848360728</v>
+        <v>1.648591879599138</v>
       </c>
       <c r="C15">
-        <v>0.4969033542593593</v>
+        <v>0.2820263560242324</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04652060494515098</v>
+        <v>0.6034564430068983</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>1.320115802366985</v>
       </c>
       <c r="G15">
-        <v>0.0007714733781143401</v>
+        <v>0.1091811774886473</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.176852373576935</v>
       </c>
       <c r="I15">
-        <v>0.245610380678702</v>
+        <v>0.00271141231578742</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1594557239431644</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1340781094508752</v>
       </c>
       <c r="L15">
-        <v>0.494093797379179</v>
+        <v>0.08079336163423534</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.790312622450983</v>
       </c>
       <c r="N15">
-        <v>0.7482427511291263</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.704252187384128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5143095303964316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.692522615225016</v>
+        <v>1.54664700389651</v>
       </c>
       <c r="C16">
-        <v>0.4708632740745884</v>
+        <v>0.2683258383086695</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04534974493653721</v>
+        <v>0.5759711881955099</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.273164703375627</v>
       </c>
       <c r="G16">
-        <v>0.0007741919591441909</v>
+        <v>0.1132967182489537</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1632278231155766</v>
       </c>
       <c r="I16">
-        <v>0.2425319718716388</v>
+        <v>0.002358602928230091</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1645110081898515</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1405815452944439</v>
       </c>
       <c r="L16">
-        <v>0.4630675354887046</v>
+        <v>0.0760118168210866</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.683505385998302</v>
       </c>
       <c r="N16">
-        <v>0.7481720081197807</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.630212276397373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5334517764219058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.53868469423935</v>
+        <v>1.483050895670033</v>
       </c>
       <c r="C17">
-        <v>0.4549046418844398</v>
+        <v>0.2619700523465411</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04465971318403739</v>
+        <v>0.6419279134104698</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>1.347902914474261</v>
       </c>
       <c r="G17">
-        <v>0.0007758772452140621</v>
+        <v>0.1202763249180343</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1250812334433959</v>
       </c>
       <c r="I17">
-        <v>0.240946591361201</v>
+        <v>0.002219281983925292</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1700101600718043</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1457577230383729</v>
       </c>
       <c r="L17">
-        <v>0.4441696038796152</v>
+        <v>0.06349474161419266</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.620242718453881</v>
       </c>
       <c r="N17">
-        <v>0.7484624156285236</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.5863107392845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.5596725499611566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.450331093665113</v>
+        <v>1.446181569397368</v>
       </c>
       <c r="C18">
-        <v>0.4457304360790033</v>
+        <v>0.2598915406487947</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04427286700542155</v>
+        <v>0.8103076577144748</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.547353264703304</v>
       </c>
       <c r="G18">
-        <v>0.0007768531842504934</v>
+        <v>0.1313583427576006</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07233867880381695</v>
       </c>
       <c r="I18">
-        <v>0.2401418250782363</v>
+        <v>0.001943714843539723</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1769031887628465</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1508434099165052</v>
       </c>
       <c r="L18">
-        <v>0.4333469680447308</v>
+        <v>0.04782236901073844</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.585816552514331</v>
       </c>
       <c r="N18">
-        <v>0.7487486102978949</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.561593144662879</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5975689698283091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.420437226070987</v>
+        <v>1.431188577361922</v>
       </c>
       <c r="C19">
-        <v>0.4426249232541011</v>
+        <v>0.2642578296290452</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04414358062184398</v>
+        <v>1.075201814127283</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>1.847944955124618</v>
       </c>
       <c r="G19">
-        <v>0.0007771847705929617</v>
+        <v>0.1445083374630158</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02773574275445867</v>
       </c>
       <c r="I19">
-        <v>0.2398873430119721</v>
+        <v>0.002092499797512026</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.184041642532172</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1554187290310036</v>
       </c>
       <c r="L19">
-        <v>0.4296904057107156</v>
+        <v>0.03822154619898654</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.579679303954208</v>
       </c>
       <c r="N19">
-        <v>0.7488656518040955</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.553313494329956</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.6404149918390729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.555047279415078</v>
+        <v>1.482057123574123</v>
       </c>
       <c r="C20">
-        <v>0.4566029459293759</v>
+        <v>0.2815336196996725</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04473212139092908</v>
+        <v>1.599096928608986</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.428221804134807</v>
       </c>
       <c r="G20">
-        <v>0.000775697163552469</v>
+        <v>0.1649188172475888</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004251773696738237</v>
       </c>
       <c r="I20">
-        <v>0.2411041780954726</v>
+        <v>0.002511538535811653</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1926434131881223</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1590709037551346</v>
       </c>
       <c r="L20">
-        <v>0.4461763971100794</v>
+        <v>0.04421360297670685</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.648238084970757</v>
       </c>
       <c r="N20">
-        <v>0.7484190909019901</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.590928373941836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.7018616121225989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.008960061360597</v>
+        <v>1.664198876553058</v>
       </c>
       <c r="C21">
-        <v>0.5036323402773917</v>
+        <v>0.3108812312894571</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04683191765348838</v>
+        <v>1.833276160399521</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.718821220937627</v>
       </c>
       <c r="G21">
-        <v>0.0007707767723823658</v>
+        <v>0.1652926102869898</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.007377763262292059</v>
       </c>
       <c r="I21">
-        <v>0.2465024774558593</v>
+        <v>0.003506548144650345</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1872803036640889</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1492484855299381</v>
       </c>
       <c r="L21">
-        <v>0.5021485513848063</v>
+        <v>0.04934546225630143</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.846417657981959</v>
       </c>
       <c r="N21">
-        <v>0.7483671564318541</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.723858610698215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.6917475218976961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.307052306426499</v>
+        <v>1.784758337568178</v>
       </c>
       <c r="C22">
-        <v>0.5344364473076268</v>
+        <v>0.3279179251493645</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04830108803657751</v>
+        <v>1.960483019291544</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.886124888063108</v>
       </c>
       <c r="G22">
-        <v>0.0007676162181952537</v>
+        <v>0.1659101627081014</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.009745171652976965</v>
       </c>
       <c r="I22">
-        <v>0.2510778720005149</v>
+        <v>0.004031461596867736</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.18404658457208</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1433413990776291</v>
       </c>
       <c r="L22">
-        <v>0.5392110871112408</v>
+        <v>0.05199831209453265</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.973853761192117</v>
       </c>
       <c r="N22">
-        <v>0.7494707904267415</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.816031817463511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.6864890686474183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.147809566863998</v>
+        <v>1.721837808743288</v>
       </c>
       <c r="C23">
-        <v>0.51798823613899</v>
+        <v>0.3170084458252802</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04750773125778274</v>
+        <v>1.890951136402634</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.798657894756388</v>
       </c>
       <c r="G23">
-        <v>0.0007692981970524702</v>
+        <v>0.1664530063373633</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.008447837511552536</v>
       </c>
       <c r="I23">
-        <v>0.2485353443447913</v>
+        <v>0.003451660177189453</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1862386714864641</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.146984977617862</v>
       </c>
       <c r="L23">
-        <v>0.51938285042948</v>
+        <v>0.05065548544414611</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.904150406666673</v>
       </c>
       <c r="N23">
-        <v>0.7487738145450749</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.76632508343323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.6921222134208023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.547649477719858</v>
+        <v>1.481018816004621</v>
       </c>
       <c r="C24">
-        <v>0.4558351409947932</v>
+        <v>0.2789612535472799</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04469935500220501</v>
+        <v>1.631248268626962</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.467262694722478</v>
       </c>
       <c r="G24">
-        <v>0.0007757785564482931</v>
+        <v>0.1680404532198168</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004299790376055213</v>
       </c>
       <c r="I24">
-        <v>0.2410326018290263</v>
+        <v>0.00204811695852225</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1943436886410481</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1606368182119233</v>
       </c>
       <c r="L24">
-        <v>0.4452689956398928</v>
+        <v>0.04549096961881993</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.64318942481404</v>
       </c>
       <c r="N24">
-        <v>0.7484383074466479</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.5888391213457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.7120406376917856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.905108556958453</v>
+        <v>1.220708295009814</v>
       </c>
       <c r="C25">
-        <v>0.3889635135743674</v>
+        <v>0.2384697652427974</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04205018964725404</v>
+        <v>1.35281518449338</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>2.115421974683755</v>
       </c>
       <c r="G25">
-        <v>0.000783023125984025</v>
+        <v>0.1717631799285968</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001291956490693691</v>
       </c>
       <c r="I25">
-        <v>0.2369874534310625</v>
+        <v>0.001216751228731994</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.204301037803134</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.176766443117427</v>
       </c>
       <c r="L25">
-        <v>0.3670885679027123</v>
+        <v>0.03997681418803989</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.362010880443165</v>
       </c>
       <c r="N25">
-        <v>0.752593615253204</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.41751253280907</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.740310708008721</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.031749636613483</v>
+        <v>1.031978420191678</v>
       </c>
       <c r="C2">
-        <v>0.2047890331760414</v>
+        <v>0.2016517554581441</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.144958460425812</v>
+        <v>1.151784394503878</v>
       </c>
       <c r="F2">
-        <v>1.864942396623789</v>
+        <v>1.857825469824817</v>
       </c>
       <c r="G2">
-        <v>0.178335159762316</v>
+        <v>0.1562391667237257</v>
       </c>
       <c r="H2">
-        <v>0.0001706195784778597</v>
+        <v>0.0001918466579082789</v>
       </c>
       <c r="I2">
-        <v>0.0004450040603716232</v>
+        <v>0.0005594705504163855</v>
       </c>
       <c r="J2">
-        <v>0.213847080873812</v>
+        <v>0.2408004066677343</v>
       </c>
       <c r="K2">
-        <v>0.1911290963958852</v>
+        <v>0.1817790179277257</v>
       </c>
       <c r="L2">
-        <v>0.03610232216302123</v>
+        <v>0.1061749515309911</v>
       </c>
       <c r="M2">
-        <v>1.150995470428398</v>
+        <v>0.03987294576961098</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03565628343795613</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.156610834545489</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7738681205984221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.7515270796644913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9012328376721541</v>
+        <v>0.9042015364395013</v>
       </c>
       <c r="C3">
-        <v>0.1846188945176408</v>
+        <v>0.1780838218903114</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.006663103347591</v>
+        <v>1.01132139243019</v>
       </c>
       <c r="F3">
-        <v>1.694307149617728</v>
+        <v>1.690103593845123</v>
       </c>
       <c r="G3">
-        <v>0.1823217925499812</v>
+        <v>0.1612361410005967</v>
       </c>
       <c r="H3">
-        <v>1.018325858215263E-05</v>
+        <v>4.68148035492888E-06</v>
       </c>
       <c r="I3">
-        <v>0.0005417681639809935</v>
+        <v>0.0005203034249947613</v>
       </c>
       <c r="J3">
-        <v>0.2201579009921382</v>
+        <v>0.2455287791303711</v>
       </c>
       <c r="K3">
-        <v>0.2007251264764207</v>
+        <v>0.1909181132789568</v>
       </c>
       <c r="L3">
-        <v>0.03335916134564609</v>
+        <v>0.1113021972748687</v>
       </c>
       <c r="M3">
-        <v>1.010152473882528</v>
+        <v>0.04302917877017665</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03298810520839446</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.013292211587043</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7952748152968923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.7742889884070863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8207674693715319</v>
+        <v>0.82533569365566</v>
       </c>
       <c r="C4">
-        <v>0.1723862958649391</v>
+        <v>0.1638621845044099</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9219250603217688</v>
+        <v>0.9253243383707428</v>
       </c>
       <c r="F4">
-        <v>1.590230628731447</v>
+        <v>1.587709946546752</v>
       </c>
       <c r="G4">
-        <v>0.1851178221132628</v>
+        <v>0.1646535685743231</v>
       </c>
       <c r="H4">
-        <v>0.0001832601106135368</v>
+        <v>0.0001527565817665</v>
       </c>
       <c r="I4">
-        <v>0.0007304316154592705</v>
+        <v>0.0006065605299014898</v>
       </c>
       <c r="J4">
-        <v>0.2242710749309929</v>
+        <v>0.2485476276985139</v>
       </c>
       <c r="K4">
-        <v>0.2068917413831404</v>
+        <v>0.1967575059263167</v>
       </c>
       <c r="L4">
-        <v>0.03165890496425217</v>
+        <v>0.1147308313299789</v>
       </c>
       <c r="M4">
-        <v>0.9236356309593532</v>
+        <v>0.04536294735981813</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03133196770129221</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9253134576154594</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8096499130804347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.78927480776305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7875473970504743</v>
+        <v>0.7927539644922206</v>
       </c>
       <c r="C5">
-        <v>0.1678677495825553</v>
+        <v>0.1585507209144907</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8878194530854699</v>
+        <v>0.89071526981256</v>
       </c>
       <c r="F5">
-        <v>1.547475755725742</v>
+        <v>1.545626139988855</v>
       </c>
       <c r="G5">
-        <v>0.1860948990177462</v>
+        <v>0.1658942886960908</v>
       </c>
       <c r="H5">
-        <v>0.0003187098603216754</v>
+        <v>0.0002759621372652177</v>
       </c>
       <c r="I5">
-        <v>0.0009065394058396237</v>
+        <v>0.0007486560170377743</v>
       </c>
       <c r="J5">
-        <v>0.2258700479125366</v>
+        <v>0.2496670116126296</v>
       </c>
       <c r="K5">
-        <v>0.2093191087845589</v>
+        <v>0.1990450879231629</v>
       </c>
       <c r="L5">
-        <v>0.03094292666988263</v>
+        <v>0.1160927399321157</v>
       </c>
       <c r="M5">
-        <v>0.888768275272497</v>
+        <v>0.04640554021826812</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0306339175813175</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8898574641932271</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8150003231070713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.794839639052384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7816031289711134</v>
+        <v>0.7869226645138951</v>
       </c>
       <c r="C6">
-        <v>0.1676485987417919</v>
+        <v>0.158193574589319</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.882637938193028</v>
+        <v>0.8854406774400587</v>
       </c>
       <c r="F6">
-        <v>1.539775785563606</v>
+        <v>1.538049864044794</v>
       </c>
       <c r="G6">
-        <v>0.1859619070765355</v>
+        <v>0.1658182537699133</v>
       </c>
       <c r="H6">
-        <v>0.0003452614657157849</v>
+        <v>0.0003003385664728242</v>
       </c>
       <c r="I6">
-        <v>0.001028543992950937</v>
+        <v>0.0008811948104598955</v>
       </c>
       <c r="J6">
-        <v>0.2259736842778644</v>
+        <v>0.249684722928059</v>
       </c>
       <c r="K6">
-        <v>0.2095406276374367</v>
+        <v>0.199249016473205</v>
       </c>
       <c r="L6">
-        <v>0.03080138008661404</v>
+        <v>0.1161951524088103</v>
       </c>
       <c r="M6">
-        <v>0.8834724650477881</v>
+        <v>0.04657553371349077</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03049583619110496</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8844546438283203</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8149234311121134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.7948198558249828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8191610935985238</v>
+        <v>0.8238876954084446</v>
       </c>
       <c r="C7">
-        <v>0.1737734919661733</v>
+        <v>0.1650087660180617</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9227779680213786</v>
+        <v>0.9269034258687441</v>
       </c>
       <c r="F7">
-        <v>1.587988658088292</v>
+        <v>1.584544325384599</v>
       </c>
       <c r="G7">
-        <v>0.1843126917508791</v>
+        <v>0.1651613831781802</v>
       </c>
       <c r="H7">
-        <v>0.0001853047860431722</v>
+        <v>0.0001549799013877973</v>
       </c>
       <c r="I7">
-        <v>0.00096610548424092</v>
+        <v>0.0008850065632275417</v>
       </c>
       <c r="J7">
-        <v>0.2238428849386835</v>
+        <v>0.2459986112407719</v>
       </c>
       <c r="K7">
-        <v>0.2064205616482928</v>
+        <v>0.196129112193228</v>
       </c>
       <c r="L7">
-        <v>0.03158806712252371</v>
+        <v>0.1142953850322481</v>
       </c>
       <c r="M7">
-        <v>0.9245218983945733</v>
+        <v>0.04532582744140996</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03122859819955348</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9259419073767674</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8070445124905916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.7852777430442615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9852668715308255</v>
+        <v>0.9869179642158201</v>
       </c>
       <c r="C8">
-        <v>0.1997383736367624</v>
+        <v>0.1946883483060162</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.098978954172082</v>
+        <v>1.107562216797007</v>
       </c>
       <c r="F8">
-        <v>1.803746661334515</v>
+        <v>1.794478075704006</v>
       </c>
       <c r="G8">
-        <v>0.1785638344610483</v>
+        <v>0.1611284357748417</v>
       </c>
       <c r="H8">
-        <v>5.643047259695777E-05</v>
+        <v>6.947898557241317E-05</v>
       </c>
       <c r="I8">
-        <v>0.0007316556000311891</v>
+        <v>0.0008566773021927432</v>
       </c>
       <c r="J8">
-        <v>0.2153878485776204</v>
+        <v>0.2351572876199626</v>
       </c>
       <c r="K8">
-        <v>0.1937309397270202</v>
+        <v>0.1837276379078947</v>
       </c>
       <c r="L8">
-        <v>0.03507764413171355</v>
+        <v>0.1071982422197184</v>
       </c>
       <c r="M8">
-        <v>1.104252728210952</v>
+        <v>0.04068077606375664</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.034546929792584</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.10822643232143</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7774898739607679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.7510222273835439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.310611302504185</v>
+        <v>1.305032088399088</v>
       </c>
       <c r="C9">
-        <v>0.2493634490826224</v>
+        <v>0.2531515916134879</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.444033191423244</v>
+        <v>1.459196793012168</v>
       </c>
       <c r="F9">
-        <v>2.236277270253481</v>
+        <v>2.218168944257442</v>
       </c>
       <c r="G9">
-        <v>0.1716836904152501</v>
+        <v>0.1528570461886076</v>
       </c>
       <c r="H9">
-        <v>0.002126862336810476</v>
+        <v>0.002149082291373228</v>
       </c>
       <c r="I9">
-        <v>0.001020772374686452</v>
+        <v>0.001312881090143492</v>
       </c>
       <c r="J9">
-        <v>0.2015629746951717</v>
+        <v>0.2228779417887345</v>
       </c>
       <c r="K9">
-        <v>0.171990380029114</v>
+        <v>0.1627387522034782</v>
       </c>
       <c r="L9">
-        <v>0.04194272900959284</v>
+        <v>0.09642188532078322</v>
       </c>
       <c r="M9">
-        <v>1.454208254114661</v>
+        <v>0.03494668971291759</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.04117909847738588</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.464462482058735</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.7345717609178166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7021866885941677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.548010930353456</v>
+        <v>1.537711212697189</v>
       </c>
       <c r="C10">
-        <v>0.2867511755422214</v>
+        <v>0.2958636670202992</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.651570923865663</v>
+        <v>1.675864256481901</v>
       </c>
       <c r="F10">
-        <v>2.50694706005838</v>
+        <v>2.476745469727504</v>
       </c>
       <c r="G10">
-        <v>0.1661384157448325</v>
+        <v>0.1542400400309774</v>
       </c>
       <c r="H10">
-        <v>0.005202177081580217</v>
+        <v>0.005169185893659112</v>
       </c>
       <c r="I10">
-        <v>0.002118902929804101</v>
+        <v>0.002426632958225206</v>
       </c>
       <c r="J10">
-        <v>0.1914376323413904</v>
+        <v>0.2035056395733719</v>
       </c>
       <c r="K10">
-        <v>0.156560510240487</v>
+        <v>0.1470340949604285</v>
       </c>
       <c r="L10">
-        <v>0.0453732771564308</v>
+        <v>0.08936762710226143</v>
       </c>
       <c r="M10">
-        <v>1.711485355918654</v>
+        <v>0.03203380904276454</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.04434834252444375</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.724906253102887</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.7020321316431506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.6572241344692884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.656365667388513</v>
+        <v>1.647679527556164</v>
       </c>
       <c r="C11">
-        <v>0.2993084520533529</v>
+        <v>0.3054277206853726</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.349062817568523</v>
+        <v>1.378846809005339</v>
       </c>
       <c r="F11">
-        <v>2.195654795297799</v>
+        <v>2.157136251714249</v>
       </c>
       <c r="G11">
-        <v>0.144881633509975</v>
+        <v>0.1501624475506276</v>
       </c>
       <c r="H11">
-        <v>0.02316781501154352</v>
+        <v>0.02310339199944167</v>
       </c>
       <c r="I11">
-        <v>0.003001390402848969</v>
+        <v>0.003362463917627068</v>
       </c>
       <c r="J11">
-        <v>0.1775152363054175</v>
+        <v>0.1784030129496426</v>
       </c>
       <c r="K11">
-        <v>0.1433431446951712</v>
+        <v>0.1345604838524723</v>
       </c>
       <c r="L11">
-        <v>0.04099008680439553</v>
+        <v>0.08494303766678024</v>
       </c>
       <c r="M11">
-        <v>1.822814128736695</v>
+        <v>0.02820144080821141</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.04095223751335908</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.832598581937503</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.6279437938063381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.5745833852061395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.699816408955286</v>
+        <v>1.693085754638474</v>
       </c>
       <c r="C12">
-        <v>0.2994893248506827</v>
+        <v>0.3026596200894716</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.077299536099702</v>
+        <v>1.106248214651714</v>
       </c>
       <c r="F12">
-        <v>1.897385017574393</v>
+        <v>1.858553901527671</v>
       </c>
       <c r="G12">
-        <v>0.1300465692959811</v>
+        <v>0.1423981610922098</v>
       </c>
       <c r="H12">
-        <v>0.06106678368836782</v>
+        <v>0.06099888708211409</v>
       </c>
       <c r="I12">
-        <v>0.003086414298560491</v>
+        <v>0.003427123433745294</v>
       </c>
       <c r="J12">
-        <v>0.1687840145884323</v>
+        <v>0.1705684390184601</v>
       </c>
       <c r="K12">
-        <v>0.1366901078146787</v>
+        <v>0.1291078153483416</v>
       </c>
       <c r="L12">
-        <v>0.04725156048181667</v>
+        <v>0.08339083336199971</v>
       </c>
       <c r="M12">
-        <v>1.86001711226055</v>
+        <v>0.02607365049005494</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04843425993424333</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.866796998292415</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.5782369098364981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.5258562228756034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.69359393723343</v>
+        <v>1.688850605425245</v>
       </c>
       <c r="C13">
-        <v>0.292479645250566</v>
+        <v>0.2932048677312054</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.8170074477422986</v>
+        <v>0.8398541164585254</v>
       </c>
       <c r="F13">
-        <v>1.590760441170659</v>
+        <v>1.558716031783305</v>
       </c>
       <c r="G13">
-        <v>0.1179248387287473</v>
+        <v>0.1272447610707701</v>
       </c>
       <c r="H13">
-        <v>0.1158841598947191</v>
+        <v>0.1158323601807041</v>
       </c>
       <c r="I13">
-        <v>0.002885611815082179</v>
+        <v>0.003234326461186932</v>
       </c>
       <c r="J13">
-        <v>0.1627726130699791</v>
+        <v>0.1701186167157336</v>
       </c>
       <c r="K13">
-        <v>0.1338158120771089</v>
+        <v>0.1277613081357893</v>
       </c>
       <c r="L13">
-        <v>0.06170422955996102</v>
+        <v>0.083170420627249</v>
       </c>
       <c r="M13">
-        <v>1.844155095533324</v>
+        <v>0.02502588710472153</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06382600547289741</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.848838075635626</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.5398991187769866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.4969507392134958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.66635545822578</v>
+        <v>1.663026827190919</v>
       </c>
       <c r="C14">
-        <v>0.2848066182234703</v>
+        <v>0.2840320443038848</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6457803124404933</v>
+        <v>0.6628764630844159</v>
       </c>
       <c r="F14">
-        <v>1.376500384190138</v>
+        <v>1.351549514289317</v>
       </c>
       <c r="G14">
-        <v>0.1106686881711774</v>
+        <v>0.1143099423760425</v>
       </c>
       <c r="H14">
-        <v>0.1645747753074858</v>
+        <v>0.164539392033106</v>
       </c>
       <c r="I14">
-        <v>0.002703615247964919</v>
+        <v>0.003083116002822628</v>
       </c>
       <c r="J14">
-        <v>0.1597595044605811</v>
+        <v>0.1718681325059017</v>
       </c>
       <c r="K14">
-        <v>0.1335096635003632</v>
+        <v>0.1284720663150846</v>
       </c>
       <c r="L14">
-        <v>0.07676715560206304</v>
+        <v>0.08345302812361521</v>
       </c>
       <c r="M14">
-        <v>1.809471250345183</v>
+        <v>0.02480004001923097</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07916462459935758</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.813069052301387</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.5181344873956135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4844616585971195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.648591879599138</v>
+        <v>1.645638073366257</v>
       </c>
       <c r="C15">
-        <v>0.2820263560242324</v>
+        <v>0.2809517857375852</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6034564430068983</v>
+        <v>0.6185071534331854</v>
       </c>
       <c r="F15">
-        <v>1.320115802366985</v>
+        <v>1.297920469666508</v>
       </c>
       <c r="G15">
-        <v>0.1091811774886473</v>
+        <v>0.1100615281583934</v>
       </c>
       <c r="H15">
-        <v>0.176852373576935</v>
+        <v>0.1768237877406023</v>
       </c>
       <c r="I15">
-        <v>0.00271141231578742</v>
+        <v>0.003125048088794102</v>
       </c>
       <c r="J15">
-        <v>0.1594557239431644</v>
+        <v>0.1733094419716927</v>
       </c>
       <c r="K15">
-        <v>0.1340781094508752</v>
+        <v>0.1292923030216051</v>
       </c>
       <c r="L15">
-        <v>0.08079336163423534</v>
+        <v>0.08368500111953647</v>
       </c>
       <c r="M15">
-        <v>1.790312622450983</v>
+        <v>0.0249315809082713</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08310126991924704</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.793798963926605</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5143095303964316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.4841138456673377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.54664700389651</v>
+        <v>1.544079406823727</v>
       </c>
       <c r="C16">
-        <v>0.2683258383086695</v>
+        <v>0.2675539621712488</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5759711881955099</v>
+        <v>0.584916105559536</v>
       </c>
       <c r="F16">
-        <v>1.273164703375627</v>
+        <v>1.260158630152276</v>
       </c>
       <c r="G16">
-        <v>0.1132967182489537</v>
+        <v>0.1030537339605004</v>
       </c>
       <c r="H16">
-        <v>0.1632278231155766</v>
+        <v>0.1632243112967586</v>
       </c>
       <c r="I16">
-        <v>0.002358602928230091</v>
+        <v>0.002827810678063258</v>
       </c>
       <c r="J16">
-        <v>0.1645110081898515</v>
+        <v>0.1857010292411179</v>
       </c>
       <c r="K16">
-        <v>0.1405815452944439</v>
+        <v>0.1358085196584879</v>
       </c>
       <c r="L16">
-        <v>0.0760118168210866</v>
+        <v>0.08548965565456879</v>
       </c>
       <c r="M16">
-        <v>1.683505385998302</v>
+        <v>0.02684206816237822</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07727919211804846</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.688201018480527</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5334517764219058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5137285485139671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.483050895670033</v>
+        <v>1.480254432579841</v>
       </c>
       <c r="C17">
-        <v>0.2619700523465411</v>
+        <v>0.2618729401796429</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6419279134104698</v>
+        <v>0.6491454313806742</v>
       </c>
       <c r="F17">
-        <v>1.347902914474261</v>
+        <v>1.337873318126569</v>
       </c>
       <c r="G17">
-        <v>0.1202763249180343</v>
+        <v>0.1053995408056245</v>
       </c>
       <c r="H17">
-        <v>0.1250812334433959</v>
+        <v>0.1250865956034488</v>
       </c>
       <c r="I17">
-        <v>0.002219281983925292</v>
+        <v>0.002710667624663543</v>
       </c>
       <c r="J17">
-        <v>0.1700101600718043</v>
+        <v>0.1954194193461305</v>
       </c>
       <c r="K17">
-        <v>0.1457577230383729</v>
+        <v>0.1406215157405615</v>
       </c>
       <c r="L17">
-        <v>0.06349474161419266</v>
+        <v>0.08703711625989302</v>
       </c>
       <c r="M17">
-        <v>1.620242718453881</v>
+        <v>0.02835564109815047</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06422060849515177</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.626057581124826</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.5596725499611566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.5428126176940609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.446181569397368</v>
+        <v>1.442297038670858</v>
       </c>
       <c r="C18">
-        <v>0.2598915406487947</v>
+        <v>0.2613439008147225</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8103076577144748</v>
+        <v>0.8182020140462782</v>
       </c>
       <c r="F18">
-        <v>1.547353264703304</v>
+        <v>1.536941931854059</v>
       </c>
       <c r="G18">
-        <v>0.1313583427576006</v>
+        <v>0.1137625725418019</v>
       </c>
       <c r="H18">
-        <v>0.07233867880381695</v>
+        <v>0.07234784570356823</v>
       </c>
       <c r="I18">
-        <v>0.001943714843539723</v>
+        <v>0.002393489920769376</v>
       </c>
       <c r="J18">
-        <v>0.1769031887628465</v>
+        <v>0.2040691052299302</v>
       </c>
       <c r="K18">
-        <v>0.1508434099165052</v>
+        <v>0.1450219650720936</v>
       </c>
       <c r="L18">
-        <v>0.04782236901073844</v>
+        <v>0.0886836120195853</v>
       </c>
       <c r="M18">
-        <v>1.585816552514331</v>
+        <v>0.02981310527713399</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04820625878934948</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.593319662484163</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5975689698283091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.5793010202658806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.431188577361922</v>
+        <v>1.425555261373177</v>
       </c>
       <c r="C19">
-        <v>0.2642578296290452</v>
+        <v>0.2680764117094583</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.075201814127283</v>
+        <v>1.085557348167072</v>
       </c>
       <c r="F19">
-        <v>1.847944955124618</v>
+        <v>1.834850528933714</v>
       </c>
       <c r="G19">
-        <v>0.1445083374630158</v>
+        <v>0.1249902771954794</v>
       </c>
       <c r="H19">
-        <v>0.02773574275445867</v>
+        <v>0.02774626989999973</v>
       </c>
       <c r="I19">
-        <v>0.002092499797512026</v>
+        <v>0.002567947092616762</v>
       </c>
       <c r="J19">
-        <v>0.184041642532172</v>
+        <v>0.211307962438994</v>
       </c>
       <c r="K19">
-        <v>0.1554187290310036</v>
+        <v>0.1486901491809904</v>
       </c>
       <c r="L19">
-        <v>0.03822154619898654</v>
+        <v>0.09019506135993094</v>
       </c>
       <c r="M19">
-        <v>1.579679303954208</v>
+        <v>0.03109581555048457</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.03825156262477769</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.589339377716556</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6404149918390729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.6180068856709511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.482057123574123</v>
+        <v>1.472660979320608</v>
       </c>
       <c r="C20">
-        <v>0.2815336196996725</v>
+        <v>0.2901020286553546</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.599096928608986</v>
+        <v>1.618078747951699</v>
       </c>
       <c r="F20">
-        <v>2.428221804134807</v>
+        <v>2.404898529352295</v>
       </c>
       <c r="G20">
-        <v>0.1649188172475888</v>
+        <v>0.1465743703170546</v>
       </c>
       <c r="H20">
-        <v>0.004251773696738237</v>
+        <v>0.004243247932121275</v>
       </c>
       <c r="I20">
-        <v>0.002511538535811653</v>
+        <v>0.002989824847330347</v>
       </c>
       <c r="J20">
-        <v>0.1926434131881223</v>
+        <v>0.2133812634954495</v>
       </c>
       <c r="K20">
-        <v>0.1590709037551346</v>
+        <v>0.1503527767165842</v>
       </c>
       <c r="L20">
-        <v>0.04421360297670685</v>
+        <v>0.09083102408759069</v>
       </c>
       <c r="M20">
-        <v>1.648238084970757</v>
+        <v>0.03241096371548213</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.04338368293231998</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.661550883258002</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.7018616121225989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.6659000313364345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.664198876553058</v>
+        <v>1.653140301911094</v>
       </c>
       <c r="C21">
-        <v>0.3108812312894571</v>
+        <v>0.319930872487447</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.833276160399521</v>
+        <v>1.875602974142183</v>
       </c>
       <c r="F21">
-        <v>2.718821220937627</v>
+        <v>2.666189058250524</v>
       </c>
       <c r="G21">
-        <v>0.1652926102869898</v>
+        <v>0.1791356238518347</v>
       </c>
       <c r="H21">
-        <v>0.007377763262292059</v>
+        <v>0.007268955810523003</v>
       </c>
       <c r="I21">
-        <v>0.003506548144650345</v>
+        <v>0.003878977731156752</v>
       </c>
       <c r="J21">
-        <v>0.1872803036640889</v>
+        <v>0.1771078768589298</v>
       </c>
       <c r="K21">
-        <v>0.1492484855299381</v>
+        <v>0.1374581037818965</v>
       </c>
       <c r="L21">
-        <v>0.04934546225630143</v>
+        <v>0.085723418844321</v>
       </c>
       <c r="M21">
-        <v>1.846417657981959</v>
+        <v>0.02999340998295086</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.04748714372944285</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.858365906393828</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.6917475218976961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.6191537836143226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.784758337568178</v>
+        <v>1.772908557406083</v>
       </c>
       <c r="C22">
-        <v>0.3279179251493645</v>
+        <v>0.3367597780851668</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.960483019291544</v>
+        <v>2.01953335200804</v>
       </c>
       <c r="F22">
-        <v>2.886124888063108</v>
+        <v>2.812611103864015</v>
       </c>
       <c r="G22">
-        <v>0.1659101627081014</v>
+        <v>0.2065921635672154</v>
       </c>
       <c r="H22">
-        <v>0.009745171652976965</v>
+        <v>0.009550300052155986</v>
       </c>
       <c r="I22">
-        <v>0.004031461596867736</v>
+        <v>0.004227994247830047</v>
       </c>
       <c r="J22">
-        <v>0.18404658457208</v>
+        <v>0.1632908704225662</v>
       </c>
       <c r="K22">
-        <v>0.1433413990776291</v>
+        <v>0.1294168325694072</v>
       </c>
       <c r="L22">
-        <v>0.05199831209453265</v>
+        <v>0.08288079159467521</v>
       </c>
       <c r="M22">
-        <v>1.973853761192117</v>
+        <v>0.02863986967042287</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.04944624826621702</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.984412921092826</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.6864890686474183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.5881968777262472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.721837808743288</v>
+        <v>1.710007350152267</v>
       </c>
       <c r="C23">
-        <v>0.3170084458252802</v>
+        <v>0.3265332005440769</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.890951136402634</v>
+        <v>1.938879407996893</v>
       </c>
       <c r="F23">
-        <v>2.798657894756388</v>
+        <v>2.738905611597431</v>
       </c>
       <c r="G23">
-        <v>0.1664530063373633</v>
+        <v>0.1883419304397833</v>
       </c>
       <c r="H23">
-        <v>0.008447837511552536</v>
+        <v>0.008304980570704223</v>
       </c>
       <c r="I23">
-        <v>0.003451660177189453</v>
+        <v>0.003688052870692182</v>
       </c>
       <c r="J23">
-        <v>0.1862386714864641</v>
+        <v>0.1713045106228783</v>
       </c>
       <c r="K23">
-        <v>0.146984977617862</v>
+        <v>0.1343829000096664</v>
       </c>
       <c r="L23">
-        <v>0.05065548544414611</v>
+        <v>0.084538535234298</v>
       </c>
       <c r="M23">
-        <v>1.904150406666673</v>
+        <v>0.02970041754364505</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.04855677198223951</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.916084365309104</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.6921222134208023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.6105715740878424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.481018816004621</v>
+        <v>1.47140229269823</v>
       </c>
       <c r="C24">
-        <v>0.2789612535472799</v>
+        <v>0.2877203890894862</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.631248268626962</v>
+        <v>1.65050207922333</v>
       </c>
       <c r="F24">
-        <v>2.467262694722478</v>
+        <v>2.443643856672352</v>
       </c>
       <c r="G24">
-        <v>0.1680404532198168</v>
+        <v>0.1492250061722942</v>
       </c>
       <c r="H24">
-        <v>0.004299790376055213</v>
+        <v>0.004291180257379179</v>
       </c>
       <c r="I24">
-        <v>0.00204811695852225</v>
+        <v>0.002427312733212617</v>
       </c>
       <c r="J24">
-        <v>0.1943436886410481</v>
+        <v>0.2151992168150301</v>
       </c>
       <c r="K24">
-        <v>0.1606368182119233</v>
+        <v>0.1516704158513518</v>
       </c>
       <c r="L24">
-        <v>0.04549096961881993</v>
+        <v>0.09133554487864082</v>
       </c>
       <c r="M24">
-        <v>1.64318942481404</v>
+        <v>0.03289791071817927</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04458507716985149</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.656767631332372</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.7120406376917856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.6753603775150907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.220708295009814</v>
+        <v>1.217030422477336</v>
       </c>
       <c r="C25">
-        <v>0.2384697652427974</v>
+        <v>0.240128233087205</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.35281518449338</v>
+        <v>1.364984828790654</v>
       </c>
       <c r="F25">
-        <v>2.115421974683755</v>
+        <v>2.101276200265062</v>
       </c>
       <c r="G25">
-        <v>0.1717631799285968</v>
+        <v>0.1515387410167008</v>
       </c>
       <c r="H25">
-        <v>0.001291956490693691</v>
+        <v>0.001321947382506794</v>
       </c>
       <c r="I25">
-        <v>0.001216751228731994</v>
+        <v>0.001567731794005489</v>
       </c>
       <c r="J25">
-        <v>0.204301037803134</v>
+        <v>0.2280866138576663</v>
       </c>
       <c r="K25">
-        <v>0.176766443117427</v>
+        <v>0.1676737983622898</v>
       </c>
       <c r="L25">
-        <v>0.03997681418803989</v>
+        <v>0.09884716550832096</v>
       </c>
       <c r="M25">
-        <v>1.362010880443165</v>
+        <v>0.03599680900135693</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.03933325844378377</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.37080399923488</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.740310708008721</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.7120208498712088</v>
       </c>
     </row>
   </sheetData>
